--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业营业费用.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业营业费用.xlsx
@@ -1765,7 +1765,7 @@
         <v>3.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="O3" t="n">
         <v>0.19</v>
@@ -1981,7 +1981,7 @@
         <v>23.4</v>
       </c>
       <c r="CH3" t="n">
-        <v>2.32</v>
+        <v>0.6800000000000002</v>
       </c>
       <c r="CI3" t="n">
         <v>1.55</v>
@@ -2252,7 +2252,7 @@
         <v>11.49</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="O4" t="n">
         <v>0.21</v>
@@ -2288,7 +2288,7 @@
         <v>5.48</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="AA4" t="n">
         <v>5.09</v>
@@ -2297,7 +2297,7 @@
         <v>2.21</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3200000000000025</v>
+        <v>0.2000000000000104</v>
       </c>
       <c r="AD4" t="n">
         <v>16.31</v>
@@ -2333,7 +2333,7 @@
         <v>14.76</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.799999999999997</v>
+        <v>5.599999999999987</v>
       </c>
       <c r="AP4" t="n">
         <v>39.14</v>
@@ -2378,7 +2378,7 @@
         <v>10.33</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="BE4" t="n">
         <v>0.68</v>
@@ -2387,7 +2387,7 @@
         <v>53.17</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.2299999999999982</v>
+        <v>0.05999999999999742</v>
       </c>
       <c r="BH4" t="n">
         <v>9.26</v>
@@ -2405,7 +2405,7 @@
         <v>34.12</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.4099999999999997</v>
+        <v>0.009999999999999676</v>
       </c>
       <c r="BN4" t="n">
         <v>2.9</v>
@@ -2441,7 +2441,7 @@
         <v>23.99</v>
       </c>
       <c r="BY4" t="n">
-        <v>2.829999999999988</v>
+        <v>0.449999999999978</v>
       </c>
       <c r="BZ4" t="n">
         <v>91.52</v>
@@ -2450,7 +2450,7 @@
         <v>21.38</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.880000000000001</v>
+        <v>0.7200000000000049</v>
       </c>
       <c r="CC4" t="n">
         <v>9.35</v>
@@ -2495,7 +2495,7 @@
         <v>20.66</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.4700000000000024</v>
+        <v>0.2100000000000026</v>
       </c>
       <c r="CR4" t="n">
         <v>18.03</v>
@@ -2549,7 +2549,7 @@
         <v>6.97</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.820000000000009</v>
+        <v>0.1400000000000092</v>
       </c>
       <c r="DJ4" t="n">
         <v>64.91</v>
@@ -2558,7 +2558,7 @@
         <v>1.92</v>
       </c>
       <c r="DL4" t="n">
-        <v>1.879999999999997</v>
+        <v>0.889999999999995</v>
       </c>
       <c r="DM4" t="n">
         <v>25.72</v>
@@ -2739,7 +2739,7 @@
         <v>7.99</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09000000000000002</v>
+        <v>2.081668171172169e-17</v>
       </c>
       <c r="O5" t="n">
         <v>0.22</v>
@@ -2748,7 +2748,7 @@
         <v>-8.119999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.670000000000019</v>
+        <v>0.950000000000063</v>
       </c>
       <c r="R5" t="n">
         <v>105.17</v>
@@ -2757,7 +2757,7 @@
         <v>14.43</v>
       </c>
       <c r="T5" t="n">
-        <v>1.09</v>
+        <v>0.3499999999999999</v>
       </c>
       <c r="U5" t="n">
         <v>6.41</v>
@@ -2775,7 +2775,7 @@
         <v>6.44</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="AA5" t="n">
         <v>6.48</v>
@@ -2793,7 +2793,7 @@
         <v>15.03</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.09</v>
+        <v>0.3300000000000003</v>
       </c>
       <c r="AG5" t="n">
         <v>6.39</v>
@@ -2811,7 +2811,7 @@
         <v>13.74</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.32</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="AM5" t="n">
         <v>6.95</v>
@@ -2820,7 +2820,7 @@
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.609999999999999</v>
+        <v>0.8600000000000048</v>
       </c>
       <c r="AP5" t="n">
         <v>51.56</v>
@@ -2829,7 +2829,7 @@
         <v>19.98</v>
       </c>
       <c r="AR5" t="n">
-        <v>3.209999999999999</v>
+        <v>0.649999999999995</v>
       </c>
       <c r="AS5" t="n">
         <v>14.14</v>
@@ -2838,7 +2838,7 @@
         <v>14.79</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.06</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="AV5" t="n">
         <v>4.47</v>
@@ -2856,7 +2856,7 @@
         <v>12.65</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.31</v>
+        <v>0.2100000000000004</v>
       </c>
       <c r="BB5" t="n">
         <v>7.76</v>
@@ -2865,7 +2865,7 @@
         <v>4.75</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.22</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="BE5" t="n">
         <v>0.82</v>
@@ -2874,7 +2874,7 @@
         <v>10.86</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.1800000000000019</v>
+        <v>9.658940314238862e-15</v>
       </c>
       <c r="BH5" t="n">
         <v>12.28</v>
@@ -2883,7 +2883,7 @@
         <v>13.22</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1.2</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="BK5" t="n">
         <v>6.32</v>
@@ -2892,7 +2892,7 @@
         <v>21.17</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.2200000000000002</v>
+        <v>8.344019919448442e-16</v>
       </c>
       <c r="BN5" t="n">
         <v>3.67</v>
@@ -2901,7 +2901,7 @@
         <v>17.31</v>
       </c>
       <c r="BP5" t="n">
-        <v>9.350000000000001</v>
+        <v>0.6799999999999988</v>
       </c>
       <c r="BQ5" t="n">
         <v>38.37</v>
@@ -2910,7 +2910,7 @@
         <v>15.43</v>
       </c>
       <c r="BS5" t="n">
-        <v>2.580000000000002</v>
+        <v>1.190000000000003</v>
       </c>
       <c r="BT5" t="n">
         <v>10.34</v>
@@ -2919,7 +2919,7 @@
         <v>-4.81</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.109999999999978</v>
+        <v>0.4699999999999347</v>
       </c>
       <c r="BW5" t="n">
         <v>118.25</v>
@@ -2928,7 +2928,7 @@
         <v>25.54</v>
       </c>
       <c r="BY5" t="n">
-        <v>2.63999999999999</v>
+        <v>1.290000000000056</v>
       </c>
       <c r="BZ5" t="n">
         <v>122.45</v>
@@ -2955,7 +2955,7 @@
         <v>27.2</v>
       </c>
       <c r="CH5" t="n">
-        <v>1.42</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="CI5" t="n">
         <v>3.18</v>
@@ -2973,7 +2973,7 @@
         <v>5.02</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.8399999999999999</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="CO5" t="n">
         <v>5.38</v>
@@ -2982,7 +2982,7 @@
         <v>18.66</v>
       </c>
       <c r="CQ5" t="n">
-        <v>4.409999999999997</v>
+        <v>3.309999999999986</v>
       </c>
       <c r="CR5" t="n">
         <v>23.07</v>
@@ -3009,7 +3009,7 @@
         <v>6.4</v>
       </c>
       <c r="CZ5" t="n">
-        <v>1.61</v>
+        <v>1.13</v>
       </c>
       <c r="DA5" t="n">
         <v>8.640000000000001</v>
@@ -3018,7 +3018,7 @@
         <v>21.35</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.9099999999999984</v>
+        <v>0.1099999999999871</v>
       </c>
       <c r="DD5" t="n">
         <v>54.08</v>
@@ -3036,7 +3036,7 @@
         <v>6.29</v>
       </c>
       <c r="DI5" t="n">
-        <v>1.739999999999991</v>
+        <v>0.4799999999999636</v>
       </c>
       <c r="DJ5" t="n">
         <v>83.65000000000001</v>
@@ -3045,7 +3045,7 @@
         <v>3.02</v>
       </c>
       <c r="DL5" t="n">
-        <v>7.640000000000001</v>
+        <v>3.090000000000018</v>
       </c>
       <c r="DM5" t="n">
         <v>33.53</v>
@@ -3054,7 +3054,7 @@
         <v>14.78</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.1399999999999997</v>
+        <v>0.05999999999999965</v>
       </c>
       <c r="DP5" t="n">
         <v>2.98</v>
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.32</v>
+        <v>5.760000000000012</v>
       </c>
       <c r="C6" t="n">
         <v>40.44</v>
@@ -3199,7 +3199,7 @@
         <v>7.9</v>
       </c>
       <c r="E6" t="n">
-        <v>11.5</v>
+        <v>0.01000000000003309</v>
       </c>
       <c r="F6" t="n">
         <v>76.70999999999999</v>
@@ -3217,7 +3217,7 @@
         <v>20.01</v>
       </c>
       <c r="K6" t="n">
-        <v>2.450000000000001</v>
+        <v>2.130000000000001</v>
       </c>
       <c r="L6" t="n">
         <v>16.12</v>
@@ -3226,7 +3226,7 @@
         <v>7.27</v>
       </c>
       <c r="N6" t="n">
-        <v>0.16</v>
+        <v>0.04999999999999993</v>
       </c>
       <c r="O6" t="n">
         <v>0.29</v>
@@ -3235,7 +3235,7 @@
         <v>-13.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.50999999999999</v>
+        <v>12.40999999999985</v>
       </c>
       <c r="R6" t="n">
         <v>132.69</v>
@@ -3244,7 +3244,7 @@
         <v>15.33</v>
       </c>
       <c r="T6" t="n">
-        <v>0.380000000000001</v>
+        <v>0.03000000000000108</v>
       </c>
       <c r="U6" t="n">
         <v>7.78</v>
@@ -3253,7 +3253,7 @@
         <v>7.29</v>
       </c>
       <c r="W6" t="n">
-        <v>20</v>
+        <v>15.04</v>
       </c>
       <c r="X6" t="n">
         <v>137.91</v>
@@ -3262,7 +3262,7 @@
         <v>7.18</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.1100000000000001</v>
       </c>
       <c r="AA6" t="n">
         <v>7.94</v>
@@ -3271,7 +3271,7 @@
         <v>8.859999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2899999999999991</v>
+        <v>0.01000000000000509</v>
       </c>
       <c r="AD6" t="n">
         <v>25.66</v>
@@ -3280,7 +3280,7 @@
         <v>15.63</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.1599999999999997</v>
       </c>
       <c r="AG6" t="n">
         <v>7.64</v>
@@ -3289,7 +3289,7 @@
         <v>17.77</v>
       </c>
       <c r="AI6" t="n">
-        <v>242.79</v>
+        <v>161.43</v>
       </c>
       <c r="AJ6" t="n">
         <v>1512.21</v>
@@ -3307,7 +3307,7 @@
         <v>9.06</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.539999999999999</v>
+        <v>7.81999999999999</v>
       </c>
       <c r="AP6" t="n">
         <v>60.62</v>
@@ -3316,7 +3316,7 @@
         <v>15.31</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.529999999999999</v>
+        <v>0.6000000000000019</v>
       </c>
       <c r="AS6" t="n">
         <v>17.72</v>
@@ -3325,7 +3325,7 @@
         <v>14.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.029999999999999</v>
+        <v>0.3499999999999989</v>
       </c>
       <c r="AV6" t="n">
         <v>5.53</v>
@@ -3334,7 +3334,7 @@
         <v>10.87</v>
       </c>
       <c r="AX6" t="n">
-        <v>6.149999999999999</v>
+        <v>3.389999999999993</v>
       </c>
       <c r="AY6" t="n">
         <v>37.87</v>
@@ -3343,7 +3343,7 @@
         <v>11.03</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.79</v>
+        <v>0.0299999999999998</v>
       </c>
       <c r="BB6" t="n">
         <v>9.720000000000001</v>
@@ -3352,7 +3352,7 @@
         <v>11.53</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.1400000000000001</v>
+        <v>0.02000000000000008</v>
       </c>
       <c r="BE6" t="n">
         <v>1.01</v>
@@ -3361,7 +3361,7 @@
         <v>5.3</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.720000000000001</v>
+        <v>2.179999999999986</v>
       </c>
       <c r="BH6" t="n">
         <v>14.91</v>
@@ -3379,7 +3379,7 @@
         <v>25.3</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.1799999999999982</v>
       </c>
       <c r="BN6" t="n">
         <v>4.46</v>
@@ -3388,7 +3388,7 @@
         <v>18.62</v>
       </c>
       <c r="BP6" t="n">
-        <v>7.43</v>
+        <v>0.29</v>
       </c>
       <c r="BQ6" t="n">
         <v>47.24</v>
@@ -3397,7 +3397,7 @@
         <v>10.91</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.77</v>
+        <v>0.579999999999997</v>
       </c>
       <c r="BT6" t="n">
         <v>14.76</v>
@@ -3406,7 +3406,7 @@
         <v>-0.5</v>
       </c>
       <c r="BV6" t="n">
-        <v>16.01000000000001</v>
+        <v>12.53000000000015</v>
       </c>
       <c r="BW6" t="n">
         <v>142.38</v>
@@ -3415,7 +3415,7 @@
         <v>23.25</v>
       </c>
       <c r="BY6" t="n">
-        <v>4.180000000000032</v>
+        <v>1.540000000000042</v>
       </c>
       <c r="BZ6" t="n">
         <v>157.43</v>
@@ -3424,7 +3424,7 @@
         <v>22.06</v>
       </c>
       <c r="CB6" t="n">
-        <v>2.389999999999999</v>
+        <v>0.3500000000000019</v>
       </c>
       <c r="CC6" t="n">
         <v>15.21</v>
@@ -3433,7 +3433,7 @@
         <v>17.94</v>
       </c>
       <c r="CE6" t="n">
-        <v>3.599999999999998</v>
+        <v>0.1499999999999981</v>
       </c>
       <c r="CF6" t="n">
         <v>24.02</v>
@@ -3451,7 +3451,7 @@
         <v>-21.44</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.4000000000000021</v>
+        <v>0.1200000000000009</v>
       </c>
       <c r="CL6" t="n">
         <v>39.67</v>
@@ -3460,7 +3460,7 @@
         <v>7.04</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.03999999999999998</v>
       </c>
       <c r="CO6" t="n">
         <v>6.51</v>
@@ -3469,7 +3469,7 @@
         <v>21.11</v>
       </c>
       <c r="CQ6" t="n">
-        <v>4.290000000000003</v>
+        <v>0.3500000000000085</v>
       </c>
       <c r="CR6" t="n">
         <v>28.48</v>
@@ -3478,7 +3478,7 @@
         <v>17.07</v>
       </c>
       <c r="CT6" t="n">
-        <v>7.280000000000001</v>
+        <v>3.559999999999988</v>
       </c>
       <c r="CU6" t="n">
         <v>40.61</v>
@@ -3487,7 +3487,7 @@
         <v>11.36</v>
       </c>
       <c r="CW6" t="n">
-        <v>12.92</v>
+        <v>11.59999999999996</v>
       </c>
       <c r="CX6" t="n">
         <v>74.40000000000001</v>
@@ -3505,7 +3505,7 @@
         <v>22.47</v>
       </c>
       <c r="DC6" t="n">
-        <v>8.939999999999998</v>
+        <v>6.500000000000021</v>
       </c>
       <c r="DD6" t="n">
         <v>64.73</v>
@@ -3514,7 +3514,7 @@
         <v>17.61</v>
       </c>
       <c r="DF6" t="n">
-        <v>8.660000000000004</v>
+        <v>7.460000000000015</v>
       </c>
       <c r="DG6" t="n">
         <v>52.32</v>
@@ -3532,7 +3532,7 @@
         <v>4.04</v>
       </c>
       <c r="DL6" t="n">
-        <v>6.059999999999995</v>
+        <v>0.2999999999999918</v>
       </c>
       <c r="DM6" t="n">
         <v>41.13</v>
@@ -3541,7 +3541,7 @@
         <v>11.59</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.5899999999999999</v>
+        <v>0.1500000000000011</v>
       </c>
       <c r="DP6" t="n">
         <v>3.68</v>
@@ -3686,7 +3686,7 @@
         <v>6.98</v>
       </c>
       <c r="E7" t="n">
-        <v>3.990000000000011</v>
+        <v>0.1399999999999557</v>
       </c>
       <c r="F7" t="n">
         <v>88.28</v>
@@ -3695,7 +3695,7 @@
         <v>13.31</v>
       </c>
       <c r="H7" t="n">
-        <v>2.709999999999997</v>
+        <v>2.549999999999993</v>
       </c>
       <c r="I7" t="n">
         <v>19.49</v>
@@ -3731,7 +3731,7 @@
         <v>15.54</v>
       </c>
       <c r="T7" t="n">
-        <v>1.129999999999999</v>
+        <v>0.3399999999999959</v>
       </c>
       <c r="U7" t="n">
         <v>8.92</v>
@@ -3749,7 +3749,7 @@
         <v>7.18</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.0299999999999998</v>
       </c>
       <c r="AA7" t="n">
         <v>9.51</v>
@@ -3758,7 +3758,7 @@
         <v>11.05</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.239999999999998</v>
+        <v>3.499999999999992</v>
       </c>
       <c r="AD7" t="n">
         <v>30.93</v>
@@ -3767,7 +3767,7 @@
         <v>16.44</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7799999999999994</v>
+        <v>0.09999999999999942</v>
       </c>
       <c r="AG7" t="n">
         <v>9.369999999999999</v>
@@ -3785,7 +3785,7 @@
         <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.76</v>
+        <v>0.29</v>
       </c>
       <c r="AM7" t="n">
         <v>10.02</v>
@@ -3812,7 +3812,7 @@
         <v>15.12</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.9400000000000004</v>
+        <v>0.06000000000000261</v>
       </c>
       <c r="AV7" t="n">
         <v>6.33</v>
@@ -3821,7 +3821,7 @@
         <v>5.11</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.090000000000003</v>
+        <v>0.3200000000000074</v>
       </c>
       <c r="AY7" t="n">
         <v>45.14</v>
@@ -3830,7 +3830,7 @@
         <v>12.13</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.0700000000000003</v>
       </c>
       <c r="BB7" t="n">
         <v>11.56</v>
@@ -3857,7 +3857,7 @@
         <v>8.470000000000001</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.06000000000000011</v>
       </c>
       <c r="BK7" t="n">
         <v>12.08</v>
@@ -3866,7 +3866,7 @@
         <v>53.33</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.2200000000000006</v>
+        <v>0.03000000000000111</v>
       </c>
       <c r="BN7" t="n">
         <v>5.32</v>
@@ -3875,7 +3875,7 @@
         <v>21.2</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.969999999999999</v>
+        <v>0.03000000000000114</v>
       </c>
       <c r="BQ7" t="n">
         <v>56.34</v>
@@ -3893,7 +3893,7 @@
         <v>2.18</v>
       </c>
       <c r="BV7" t="n">
-        <v>13.55999999999998</v>
+        <v>0.3999999999998796</v>
       </c>
       <c r="BW7" t="n">
         <v>168.05</v>
@@ -3902,7 +3902,7 @@
         <v>27.76</v>
       </c>
       <c r="BY7" t="n">
-        <v>23.32999999999998</v>
+        <v>14.52999999999983</v>
       </c>
       <c r="BZ7" t="n">
         <v>188.62</v>
@@ -3920,7 +3920,7 @@
         <v>17.09</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.3800000000000021</v>
+        <v>0.230000000000004</v>
       </c>
       <c r="CF7" t="n">
         <v>29.74</v>
@@ -3947,7 +3947,7 @@
         <v>7.8</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.7400000000000002</v>
+        <v>0.2199999999999999</v>
       </c>
       <c r="CO7" t="n">
         <v>7.46</v>
@@ -3956,7 +3956,7 @@
         <v>16.85</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.3299999999999912</v>
       </c>
       <c r="CR7" t="n">
         <v>32.85</v>
@@ -3965,7 +3965,7 @@
         <v>14.79</v>
       </c>
       <c r="CT7" t="n">
-        <v>6.630000000000003</v>
+        <v>0.2800000000000047</v>
       </c>
       <c r="CU7" t="n">
         <v>48.6</v>
@@ -3983,7 +3983,7 @@
         <v>7.25</v>
       </c>
       <c r="CZ7" t="n">
-        <v>1.92</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="DA7" t="n">
         <v>12.84</v>
@@ -4010,7 +4010,7 @@
         <v>3.83</v>
       </c>
       <c r="DI7" t="n">
-        <v>18.72999999999999</v>
+        <v>18.16999999999999</v>
       </c>
       <c r="DJ7" t="n">
         <v>124.99</v>
@@ -4019,7 +4019,7 @@
         <v>4.3</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.3700000000000117</v>
+        <v>0.07000000000001994</v>
       </c>
       <c r="DM7" t="n">
         <v>48.44</v>
@@ -4028,7 +4028,7 @@
         <v>12.88</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.54</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="DP7" t="n">
         <v>4.29</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8599999999999923</v>
+        <v>0.09999999999997308</v>
       </c>
       <c r="C8" t="n">
         <v>53.59</v>
@@ -4173,7 +4173,7 @@
         <v>6.52</v>
       </c>
       <c r="E8" t="n">
-        <v>13.19</v>
+        <v>1.069999999999978</v>
       </c>
       <c r="F8" t="n">
         <v>103.22</v>
@@ -4209,7 +4209,7 @@
         <v>16.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.81</v>
+        <v>14.96999999999996</v>
       </c>
       <c r="R8" t="n">
         <v>179.62</v>
@@ -4236,7 +4236,7 @@
         <v>10.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.289999999999999</v>
+        <v>1.039999999999999</v>
       </c>
       <c r="AA8" t="n">
         <v>11.16</v>
@@ -4254,7 +4254,7 @@
         <v>16.34</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5100000000000016</v>
+        <v>0.2100000000000033</v>
       </c>
       <c r="AG8" t="n">
         <v>10.59</v>
@@ -4263,7 +4263,7 @@
         <v>17.11</v>
       </c>
       <c r="AI8" t="n">
-        <v>251.6499999999999</v>
+        <v>164.8899999999999</v>
       </c>
       <c r="AJ8" t="n">
         <v>2093.31</v>
@@ -4272,7 +4272,7 @@
         <v>13.47</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.4600000000000011</v>
+        <v>0.1700000000000011</v>
       </c>
       <c r="AM8" t="n">
         <v>11.74</v>
@@ -4290,7 +4290,7 @@
         <v>14.8</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.830000000000002</v>
+        <v>1.229999999999998</v>
       </c>
       <c r="AS8" t="n">
         <v>23.17</v>
@@ -4299,7 +4299,7 @@
         <v>10.35</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.75</v>
+        <v>0.2799999999999985</v>
       </c>
       <c r="AV8" t="n">
         <v>7.56</v>
@@ -4308,7 +4308,7 @@
         <v>8.57</v>
       </c>
       <c r="AX8" t="n">
-        <v>2.609999999999992</v>
+        <v>2.289999999999984</v>
       </c>
       <c r="AY8" t="n">
         <v>51.3</v>
@@ -4317,7 +4317,7 @@
         <v>13.12</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.9499999999999993</v>
+        <v>0.4599999999999995</v>
       </c>
       <c r="BB8" t="n">
         <v>13.48</v>
@@ -4326,7 +4326,7 @@
         <v>3.32</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.04000000000000012</v>
+        <v>5.204170427930421e-16</v>
       </c>
       <c r="BE8" t="n">
         <v>1.39</v>
@@ -4335,7 +4335,7 @@
         <v>10.94</v>
       </c>
       <c r="BG8" t="n">
-        <v>4.219999999999999</v>
+        <v>0.2199999999999989</v>
       </c>
       <c r="BH8" t="n">
         <v>20.36</v>
@@ -4344,7 +4344,7 @@
         <v>10.86</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1.670000000000001</v>
+        <v>1.160000000000001</v>
       </c>
       <c r="BK8" t="n">
         <v>23.61</v>
@@ -4353,7 +4353,7 @@
         <v>143.88</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.5899999999999999</v>
+        <v>0.1199999999999975</v>
       </c>
       <c r="BN8" t="n">
         <v>6.02</v>
@@ -4362,7 +4362,7 @@
         <v>14.93</v>
       </c>
       <c r="BP8" t="n">
-        <v>7.480000000000004</v>
+        <v>0.5700000000000069</v>
       </c>
       <c r="BQ8" t="n">
         <v>65.7</v>
@@ -4371,7 +4371,7 @@
         <v>10.57</v>
       </c>
       <c r="BS8" t="n">
-        <v>1.100000000000002</v>
+        <v>0.1800000000000021</v>
       </c>
       <c r="BT8" t="n">
         <v>19.42</v>
@@ -4380,7 +4380,7 @@
         <v>3.07</v>
       </c>
       <c r="BV8" t="n">
-        <v>21.11000000000001</v>
+        <v>7.550000000000031</v>
       </c>
       <c r="BW8" t="n">
         <v>196.43</v>
@@ -4398,7 +4398,7 @@
         <v>17.92</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.3999999999999972</v>
+        <v>0.009999999999990877</v>
       </c>
       <c r="CC8" t="n">
         <v>20.72</v>
@@ -4416,7 +4416,7 @@
         <v>26.29</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="CI8" t="n">
         <v>6.63</v>
@@ -4425,7 +4425,7 @@
         <v>16.36</v>
       </c>
       <c r="CK8" t="n">
-        <v>6.420000000000002</v>
+        <v>6.340000000000018</v>
       </c>
       <c r="CL8" t="n">
         <v>53.91</v>
@@ -4434,7 +4434,7 @@
         <v>6.02</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.4999999999999989</v>
+        <v>0.07999999999999891</v>
       </c>
       <c r="CO8" t="n">
         <v>8.369999999999999</v>
@@ -4443,7 +4443,7 @@
         <v>17.55</v>
       </c>
       <c r="CQ8" t="n">
-        <v>4.279999999999994</v>
+        <v>1.910000000000003</v>
       </c>
       <c r="CR8" t="n">
         <v>41.08</v>
@@ -4452,7 +4452,7 @@
         <v>22.29</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.6899999999999977</v>
+        <v>0.1299999999999883</v>
       </c>
       <c r="CU8" t="n">
         <v>56.19</v>
@@ -4461,7 +4461,7 @@
         <v>11.53</v>
       </c>
       <c r="CW8" t="n">
-        <v>13.67999999999999</v>
+        <v>7.559999999999992</v>
       </c>
       <c r="CX8" t="n">
         <v>102.43</v>
@@ -4470,7 +4470,7 @@
         <v>5.69</v>
       </c>
       <c r="CZ8" t="n">
-        <v>1.779999999999999</v>
+        <v>0.2399999999999989</v>
       </c>
       <c r="DA8" t="n">
         <v>14.78</v>
@@ -4497,7 +4497,7 @@
         <v>2.88</v>
       </c>
       <c r="DI8" t="n">
-        <v>18.43000000000001</v>
+        <v>0.1200000000000188</v>
       </c>
       <c r="DJ8" t="n">
         <v>142.92</v>
@@ -4506,7 +4506,7 @@
         <v>3.14</v>
       </c>
       <c r="DL8" t="n">
-        <v>6.219999999999999</v>
+        <v>5.039999999999944</v>
       </c>
       <c r="DM8" t="n">
         <v>62.12</v>
@@ -4515,7 +4515,7 @@
         <v>25.92</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="DP8" t="n">
         <v>5.08</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.740000000000002</v>
+        <v>4.440000000000063</v>
       </c>
       <c r="C9" t="n">
         <v>61.4</v>
@@ -4660,7 +4660,7 @@
         <v>6.45</v>
       </c>
       <c r="E9" t="n">
-        <v>12.27</v>
+        <v>1.850000000000044</v>
       </c>
       <c r="F9" t="n">
         <v>117.48</v>
@@ -4669,7 +4669,7 @@
         <v>10.21</v>
       </c>
       <c r="H9" t="n">
-        <v>2.41</v>
+        <v>2.20999999999998</v>
       </c>
       <c r="I9" t="n">
         <v>25.53</v>
@@ -4678,7 +4678,7 @@
         <v>15.18</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1899999999999968</v>
+        <v>0.01999999999999472</v>
       </c>
       <c r="L9" t="n">
         <v>25.29</v>
@@ -4705,7 +4705,7 @@
         <v>15.27</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2199999999999989</v>
+        <v>0.009999999999992681</v>
       </c>
       <c r="U9" t="n">
         <v>11.93</v>
@@ -4714,7 +4714,7 @@
         <v>7.96</v>
       </c>
       <c r="W9" t="n">
-        <v>21.13000000000002</v>
+        <v>17.81000000000006</v>
       </c>
       <c r="X9" t="n">
         <v>215.69</v>
@@ -4732,7 +4732,7 @@
         <v>11.78</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3099999999999987</v>
+        <v>0.06999999999999673</v>
       </c>
       <c r="AD9" t="n">
         <v>40.5</v>
@@ -4759,7 +4759,7 @@
         <v>13.89</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.67</v>
+        <v>0.2899999999999969</v>
       </c>
       <c r="AM9" t="n">
         <v>13.41</v>
@@ -4786,7 +4786,7 @@
         <v>25.27</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.850000000000001</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="AV9" t="n">
         <v>8.82</v>
@@ -4804,7 +4804,7 @@
         <v>10.16</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.7900000000000007</v>
+        <v>0.1000000000000012</v>
       </c>
       <c r="BB9" t="n">
         <v>15.45</v>
@@ -4813,7 +4813,7 @@
         <v>10.35</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.1799999999999999</v>
+        <v>0.1199999999999985</v>
       </c>
       <c r="BE9" t="n">
         <v>1.62</v>
@@ -4822,7 +4822,7 @@
         <v>10.57</v>
       </c>
       <c r="BG9" t="n">
-        <v>2.649999999999999</v>
+        <v>0.2100000000000013</v>
       </c>
       <c r="BH9" t="n">
         <v>23.84</v>
@@ -4831,7 +4831,7 @@
         <v>-3.02</v>
       </c>
       <c r="BJ9" t="n">
-        <v>2.039999999999999</v>
+        <v>0.3699999999999981</v>
       </c>
       <c r="BK9" t="n">
         <v>35.56</v>
@@ -4858,7 +4858,7 @@
         <v>12.12</v>
       </c>
       <c r="BS9" t="n">
-        <v>1.84</v>
+        <v>0.09999999999999587</v>
       </c>
       <c r="BT9" t="n">
         <v>21.91</v>
@@ -4876,7 +4876,7 @@
         <v>22.49</v>
       </c>
       <c r="BY9" t="n">
-        <v>20.72</v>
+        <v>18.43999999999988</v>
       </c>
       <c r="BZ9" t="n">
         <v>246.21</v>
@@ -4885,7 +4885,7 @@
         <v>18.09</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.090000000000003</v>
+        <v>0.2700000000000268</v>
       </c>
       <c r="CC9" t="n">
         <v>23.37</v>
@@ -4894,7 +4894,7 @@
         <v>12.8</v>
       </c>
       <c r="CE9" t="n">
-        <v>3.950000000000003</v>
+        <v>3.070000000000007</v>
       </c>
       <c r="CF9" t="n">
         <v>39.17</v>
@@ -4903,7 +4903,7 @@
         <v>25.03</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.519999999999999</v>
+        <v>0.6299999999999992</v>
       </c>
       <c r="CI9" t="n">
         <v>7.19</v>
@@ -4939,7 +4939,7 @@
         <v>14.09</v>
       </c>
       <c r="CT9" t="n">
-        <v>6.530000000000001</v>
+        <v>4.050000000000015</v>
       </c>
       <c r="CU9" t="n">
         <v>63.33</v>
@@ -4966,7 +4966,7 @@
         <v>15.25</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.13000000000002</v>
+        <v>0.3700000000001002</v>
       </c>
       <c r="DD9" t="n">
         <v>100.08</v>
@@ -5002,7 +5002,7 @@
         <v>27.23</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.0300000000000003</v>
       </c>
       <c r="DP9" t="n">
         <v>5.92</v>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.719999999999999</v>
+        <v>0.8399999999999892</v>
       </c>
       <c r="C10" t="n">
         <v>68.59999999999999</v>
@@ -5165,7 +5165,7 @@
         <v>17.36</v>
       </c>
       <c r="K10" t="n">
-        <v>0.390000000000005</v>
+        <v>0.1400000000000241</v>
       </c>
       <c r="L10" t="n">
         <v>28.12</v>
@@ -5174,7 +5174,7 @@
         <v>8.550000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.07000000000000006</v>
+        <v>0.03000000000000026</v>
       </c>
       <c r="O10" t="n">
         <v>0.46</v>
@@ -5183,7 +5183,7 @@
         <v>30.17</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.400000000000013</v>
+        <v>0.150000000000013</v>
       </c>
       <c r="R10" t="n">
         <v>231.39</v>
@@ -5192,7 +5192,7 @@
         <v>16.77</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0.5400000000000169</v>
       </c>
       <c r="U10" t="n">
         <v>13.35</v>
@@ -5210,7 +5210,7 @@
         <v>14.98</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1599999999999981</v>
+        <v>0.1199999999999901</v>
       </c>
       <c r="AA10" t="n">
         <v>14.18</v>
@@ -5219,7 +5219,7 @@
         <v>12.69</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.539999999999999</v>
+        <v>4.02000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>47.78</v>
@@ -5228,7 +5228,7 @@
         <v>19.2</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.3100000000000041</v>
       </c>
       <c r="AG10" t="n">
         <v>13.86</v>
@@ -5237,7 +5237,7 @@
         <v>17.95</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.180000000000291</v>
+        <v>0.830000000000183</v>
       </c>
       <c r="AJ10" t="n">
         <v>2676.57</v>
@@ -5246,7 +5246,7 @@
         <v>13.78</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.529999999999999</v>
+        <v>0.03000000000000286</v>
       </c>
       <c r="AM10" t="n">
         <v>15.75</v>
@@ -5264,7 +5264,7 @@
         <v>13.31</v>
       </c>
       <c r="AR10" t="n">
-        <v>2.809999999999999</v>
+        <v>2.130000000000007</v>
       </c>
       <c r="AS10" t="n">
         <v>29.65</v>
@@ -5273,7 +5273,7 @@
         <v>10.55</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.27</v>
+        <v>0.119999999999996</v>
       </c>
       <c r="AV10" t="n">
         <v>10.93</v>
@@ -5282,7 +5282,7 @@
         <v>17.35</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.079999999999998</v>
+        <v>3.959999999999965</v>
       </c>
       <c r="AY10" t="n">
         <v>66.45999999999999</v>
@@ -5291,7 +5291,7 @@
         <v>8.460000000000001</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.7300000000000011</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="BB10" t="n">
         <v>17.11</v>
@@ -5300,7 +5300,7 @@
         <v>8.65</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.1300000000000001</v>
+        <v>0.01000000000000059</v>
       </c>
       <c r="BE10" t="n">
         <v>1.68</v>
@@ -5309,7 +5309,7 @@
         <v>2.4</v>
       </c>
       <c r="BG10" t="n">
-        <v>24.14</v>
+        <v>18.2</v>
       </c>
       <c r="BH10" t="n">
         <v>26.83</v>
@@ -5318,7 +5318,7 @@
         <v>-1.49</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1.92</v>
+        <v>0.8100000000000058</v>
       </c>
       <c r="BK10" t="n">
         <v>43.15</v>
@@ -5345,7 +5345,7 @@
         <v>10.51</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.3700000000000083</v>
       </c>
       <c r="BT10" t="n">
         <v>24.25</v>
@@ -5372,7 +5372,7 @@
         <v>18.16</v>
       </c>
       <c r="CB10" t="n">
-        <v>3.149999999999999</v>
+        <v>0.6699999999999617</v>
       </c>
       <c r="CC10" t="n">
         <v>26.48</v>
@@ -5399,7 +5399,7 @@
         <v>-33.35</v>
       </c>
       <c r="CK10" t="n">
-        <v>7</v>
+        <v>2.819966482547898e-14</v>
       </c>
       <c r="CL10" t="n">
         <v>68.37</v>
@@ -5408,7 +5408,7 @@
         <v>4.49</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.7900000000000009</v>
+        <v>0.7099999999999973</v>
       </c>
       <c r="CO10" t="n">
         <v>10.89</v>
@@ -5417,7 +5417,7 @@
         <v>13.2</v>
       </c>
       <c r="CQ10" t="n">
-        <v>3.909999999999997</v>
+        <v>0.2299999999999611</v>
       </c>
       <c r="CR10" t="n">
         <v>48.39</v>
@@ -5435,7 +5435,7 @@
         <v>12.48</v>
       </c>
       <c r="CW10" t="n">
-        <v>14.64000000000001</v>
+        <v>8.879999999999972</v>
       </c>
       <c r="CX10" t="n">
         <v>132.57</v>
@@ -5444,7 +5444,7 @@
         <v>5.44</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.2399999999999998</v>
+        <v>0.0499999999999976</v>
       </c>
       <c r="DA10" t="n">
         <v>18.97</v>
@@ -5453,7 +5453,7 @@
         <v>15.77</v>
       </c>
       <c r="DC10" t="n">
-        <v>10.28999999999999</v>
+        <v>6.909999999999789</v>
       </c>
       <c r="DD10" t="n">
         <v>114.88</v>
@@ -5480,7 +5480,7 @@
         <v>3.81</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.620000000000005</v>
+        <v>0.5200000000000109</v>
       </c>
       <c r="DM10" t="n">
         <v>70.58</v>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.599999999999991</v>
+        <v>1.920000000000013</v>
       </c>
       <c r="C11" t="n">
         <v>75.94</v>
@@ -5634,7 +5634,7 @@
         <v>6.75</v>
       </c>
       <c r="E11" t="n">
-        <v>3.610000000000001</v>
+        <v>0.6400000000000112</v>
       </c>
       <c r="F11" t="n">
         <v>147.13</v>
@@ -5643,7 +5643,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2.939999999999998</v>
+        <v>0.6899999999999979</v>
       </c>
       <c r="I11" t="n">
         <v>32.22</v>
@@ -5652,7 +5652,7 @@
         <v>16.18</v>
       </c>
       <c r="K11" t="n">
-        <v>1.739999999999994</v>
+        <v>0.8099999999999488</v>
       </c>
       <c r="L11" t="n">
         <v>31.21</v>
@@ -5670,7 +5670,7 @@
         <v>12.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.159999999999989</v>
+        <v>2.309999999999937</v>
       </c>
       <c r="R11" t="n">
         <v>254.45</v>
@@ -5679,7 +5679,7 @@
         <v>15.34</v>
       </c>
       <c r="T11" t="n">
-        <v>10.84</v>
+        <v>7.879999999999985</v>
       </c>
       <c r="U11" t="n">
         <v>14.88</v>
@@ -5688,7 +5688,7 @@
         <v>-0.12</v>
       </c>
       <c r="W11" t="n">
-        <v>4.230000000000011</v>
+        <v>0.450000000000101</v>
       </c>
       <c r="X11" t="n">
         <v>274.04</v>
@@ -5697,7 +5697,7 @@
         <v>16.24</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.640000000000002</v>
+        <v>1.060000000000022</v>
       </c>
       <c r="AA11" t="n">
         <v>15.58</v>
@@ -5724,7 +5724,7 @@
         <v>13.89</v>
       </c>
       <c r="AI11" t="n">
-        <v>102.4599999999996</v>
+        <v>94.78999999999876</v>
       </c>
       <c r="AJ11" t="n">
         <v>2993.59</v>
@@ -5733,7 +5733,7 @@
         <v>14.54</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.160000000000002</v>
+        <v>0.5200000000000022</v>
       </c>
       <c r="AM11" t="n">
         <v>17.29</v>
@@ -5742,7 +5742,7 @@
         <v>2.56</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.579999999999979</v>
+        <v>3.419999999999939</v>
       </c>
       <c r="AP11" t="n">
         <v>117.93</v>
@@ -5760,7 +5760,7 @@
         <v>11.49</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.9399999999999995</v>
+        <v>0.2000000000000025</v>
       </c>
       <c r="AV11" t="n">
         <v>12.39</v>
@@ -5769,7 +5769,7 @@
         <v>17.15</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.450000000000001</v>
+        <v>0.3700000000000028</v>
       </c>
       <c r="AY11" t="n">
         <v>75.2</v>
@@ -5787,7 +5787,7 @@
         <v>7.13</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.2899999999999998</v>
+        <v>0.01999999999999902</v>
       </c>
       <c r="BE11" t="n">
         <v>1.87</v>
@@ -5805,7 +5805,7 @@
         <v>10.94</v>
       </c>
       <c r="BJ11" t="n">
-        <v>4.520000000000001</v>
+        <v>0.680000000000001</v>
       </c>
       <c r="BK11" t="n">
         <v>56.7</v>
@@ -5814,7 +5814,7 @@
         <v>196.01</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.4899999999999995</v>
+        <v>0.4899999999999959</v>
       </c>
       <c r="BN11" t="n">
         <v>8.92</v>
@@ -5823,7 +5823,7 @@
         <v>22.39</v>
       </c>
       <c r="BP11" t="n">
-        <v>2.720000000000018</v>
+        <v>0.1200000000000521</v>
       </c>
       <c r="BQ11" t="n">
         <v>114.65</v>
@@ -5832,7 +5832,7 @@
         <v>36.77</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.1099999999999997</v>
       </c>
       <c r="BT11" t="n">
         <v>27.43</v>
@@ -5841,7 +5841,7 @@
         <v>3.81</v>
       </c>
       <c r="BV11" t="n">
-        <v>7.970000000000002</v>
+        <v>5.050000000000043</v>
       </c>
       <c r="BW11" t="n">
         <v>285.08</v>
@@ -5850,7 +5850,7 @@
         <v>21.02</v>
       </c>
       <c r="BY11" t="n">
-        <v>11.37000000000003</v>
+        <v>4.730000000000029</v>
       </c>
       <c r="BZ11" t="n">
         <v>290.3</v>
@@ -5868,7 +5868,7 @@
         <v>5.97</v>
       </c>
       <c r="CE11" t="n">
-        <v>5.119999999999997</v>
+        <v>1.240000000000002</v>
       </c>
       <c r="CF11" t="n">
         <v>47.6</v>
@@ -5877,7 +5877,7 @@
         <v>18.41</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.8399999999999992</v>
+        <v>0.08999999999999653</v>
       </c>
       <c r="CI11" t="n">
         <v>5.82</v>
@@ -5886,7 +5886,7 @@
         <v>-29.21</v>
       </c>
       <c r="CK11" t="n">
-        <v>3.69</v>
+        <v>0.1899999999999857</v>
       </c>
       <c r="CL11" t="n">
         <v>76.41</v>
@@ -5904,7 +5904,7 @@
         <v>18.24</v>
       </c>
       <c r="CQ11" t="n">
-        <v>2.160000000000003</v>
+        <v>0.09000000000002384</v>
       </c>
       <c r="CR11" t="n">
         <v>53.86</v>
@@ -5913,7 +5913,7 @@
         <v>14.65</v>
       </c>
       <c r="CT11" t="n">
-        <v>2.870000000000006</v>
+        <v>0.01000000000001999</v>
       </c>
       <c r="CU11" t="n">
         <v>81.98999999999999</v>
@@ -5931,7 +5931,7 @@
         <v>6.13</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.859999999999999</v>
+        <v>0.4700000000000064</v>
       </c>
       <c r="DA11" t="n">
         <v>21.83</v>
@@ -5949,7 +5949,7 @@
         <v>17.1</v>
       </c>
       <c r="DF11" t="n">
-        <v>5.569999999999995</v>
+        <v>3.609999999999959</v>
       </c>
       <c r="DG11" t="n">
         <v>102.9</v>
@@ -5967,7 +5967,7 @@
         <v>4.63</v>
       </c>
       <c r="DL11" t="n">
-        <v>7.780000000000001</v>
+        <v>4.049999999999966</v>
       </c>
       <c r="DM11" t="n">
         <v>77.27</v>
@@ -6121,7 +6121,7 @@
         <v>8.77</v>
       </c>
       <c r="E12" t="n">
-        <v>1.240000000000009</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="F12" t="n">
         <v>171.38</v>
@@ -6130,7 +6130,7 @@
         <v>12.05</v>
       </c>
       <c r="H12" t="n">
-        <v>5.24</v>
+        <v>0.1100000000000039</v>
       </c>
       <c r="I12" t="n">
         <v>38.69</v>
@@ -6139,7 +6139,7 @@
         <v>14.36</v>
       </c>
       <c r="K12" t="n">
-        <v>4.25</v>
+        <v>0.01000000000003598</v>
       </c>
       <c r="L12" t="n">
         <v>36.02</v>
@@ -6157,7 +6157,7 @@
         <v>21.48</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.55</v>
+        <v>1.020000000000073</v>
       </c>
       <c r="R12" t="n">
         <v>290.87</v>
@@ -6175,7 +6175,7 @@
         <v>7.3</v>
       </c>
       <c r="W12" t="n">
-        <v>12.57</v>
+        <v>3.209999999999776</v>
       </c>
       <c r="X12" t="n">
         <v>308.22</v>
@@ -6184,7 +6184,7 @@
         <v>17.48</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.69</v>
+        <v>1.049999999999998</v>
       </c>
       <c r="AA12" t="n">
         <v>18.06</v>
@@ -6202,7 +6202,7 @@
         <v>16.59</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.49</v>
+        <v>0.7299999999999962</v>
       </c>
       <c r="AG12" t="n">
         <v>19.07</v>
@@ -6220,7 +6220,7 @@
         <v>14.26</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.36</v>
+        <v>0.03999999999999604</v>
       </c>
       <c r="AM12" t="n">
         <v>19.8</v>
@@ -6247,7 +6247,7 @@
         <v>11.82</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.6700000000000006</v>
+        <v>0.1500000000000001</v>
       </c>
       <c r="AV12" t="n">
         <v>13.13</v>
@@ -6256,7 +6256,7 @@
         <v>14.03</v>
       </c>
       <c r="AX12" t="n">
-        <v>11.78</v>
+        <v>4.219999999999991</v>
       </c>
       <c r="AY12" t="n">
         <v>86.93000000000001</v>
@@ -6274,7 +6274,7 @@
         <v>9.06</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.32</v>
+        <v>5.793976409762536e-16</v>
       </c>
       <c r="BE12" t="n">
         <v>2.23</v>
@@ -6292,7 +6292,7 @@
         <v>12.05</v>
       </c>
       <c r="BJ12" t="n">
-        <v>3.86</v>
+        <v>0.5799999999999979</v>
       </c>
       <c r="BK12" t="n">
         <v>64.16</v>
@@ -6310,7 +6310,7 @@
         <v>17.46</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.94999999999999</v>
+        <v>0.529999999999955</v>
       </c>
       <c r="BQ12" t="n">
         <v>129.4</v>
@@ -6319,7 +6319,7 @@
         <v>35.72</v>
       </c>
       <c r="BS12" t="n">
-        <v>2.99</v>
+        <v>1.98</v>
       </c>
       <c r="BT12" t="n">
         <v>32.08</v>
@@ -6328,7 +6328,7 @@
         <v>18.36</v>
       </c>
       <c r="BV12" t="n">
-        <v>11.80000000000001</v>
+        <v>3.830000000000007</v>
       </c>
       <c r="BW12" t="n">
         <v>319.32</v>
@@ -6346,7 +6346,7 @@
         <v>11.3</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.069999999999998</v>
+        <v>0.4299999999999868</v>
       </c>
       <c r="CC12" t="n">
         <v>34.43</v>
@@ -6355,7 +6355,7 @@
         <v>10.38</v>
       </c>
       <c r="CE12" t="n">
-        <v>8.52</v>
+        <v>0.220000000000002</v>
       </c>
       <c r="CF12" t="n">
         <v>54.75</v>
@@ -6364,7 +6364,7 @@
         <v>8.98</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.12</v>
+        <v>0.1900000000000044</v>
       </c>
       <c r="CI12" t="n">
         <v>7.27</v>
@@ -6373,7 +6373,7 @@
         <v>-21.96</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.7900000000000009</v>
+        <v>0.6000000000000152</v>
       </c>
       <c r="CL12" t="n">
         <v>89.2</v>
@@ -6382,7 +6382,7 @@
         <v>7.3</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.5799999999999998</v>
+        <v>0.03000000000000069</v>
       </c>
       <c r="CO12" t="n">
         <v>15.55</v>
@@ -6391,7 +6391,7 @@
         <v>32.27</v>
       </c>
       <c r="CQ12" t="n">
-        <v>3.469999999999999</v>
+        <v>1.219999999999972</v>
       </c>
       <c r="CR12" t="n">
         <v>63.76</v>
@@ -6400,7 +6400,7 @@
         <v>20.2</v>
       </c>
       <c r="CT12" t="n">
-        <v>10.63</v>
+        <v>6.299999999999941</v>
       </c>
       <c r="CU12" t="n">
         <v>92.58</v>
@@ -6409,7 +6409,7 @@
         <v>11.51</v>
       </c>
       <c r="CW12" t="n">
-        <v>19.57</v>
+        <v>3.160000000000061</v>
       </c>
       <c r="CX12" t="n">
         <v>168.55</v>
@@ -6418,7 +6418,7 @@
         <v>5.03</v>
       </c>
       <c r="CZ12" t="n">
-        <v>2.38</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="DA12" t="n">
         <v>24.96</v>
@@ -6445,7 +6445,7 @@
         <v>6.58</v>
       </c>
       <c r="DI12" t="n">
-        <v>12.08999999999998</v>
+        <v>0.3299999999999361</v>
       </c>
       <c r="DJ12" t="n">
         <v>212.04</v>
@@ -6463,7 +6463,7 @@
         <v>15.56</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.84</v>
+        <v>0.6000000000000006</v>
       </c>
       <c r="DP12" t="n">
         <v>9.76</v>
@@ -6599,7 +6599,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.599999999999998</v>
+        <v>2.319999999999954</v>
       </c>
       <c r="C13" t="n">
         <v>12.97</v>
@@ -6608,7 +6608,7 @@
         <v>13.88</v>
       </c>
       <c r="E13" t="n">
-        <v>15.62</v>
+        <v>11.93999999999998</v>
       </c>
       <c r="F13" t="n">
         <v>27.57</v>
@@ -6617,7 +6617,7 @@
         <v>37.23</v>
       </c>
       <c r="H13" t="n">
-        <v>2.91</v>
+        <v>0.3899999999999904</v>
       </c>
       <c r="I13" t="n">
         <v>5.46</v>
@@ -6626,7 +6626,7 @@
         <v>4.13</v>
       </c>
       <c r="K13" t="n">
-        <v>2.78</v>
+        <v>0.2599999999999578</v>
       </c>
       <c r="L13" t="n">
         <v>4.68</v>
@@ -6635,7 +6635,7 @@
         <v>10.14</v>
       </c>
       <c r="N13" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="O13" t="n">
         <v>0.02</v>
@@ -6644,7 +6644,7 @@
         <v>-79.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.19</v>
+        <v>0.6199999999999517</v>
       </c>
       <c r="R13" t="n">
         <v>43.18</v>
@@ -6662,7 +6662,7 @@
         <v>14.68</v>
       </c>
       <c r="W13" t="n">
-        <v>24.72</v>
+        <v>0.150000000000134</v>
       </c>
       <c r="X13" t="n">
         <v>46.46</v>
@@ -6671,7 +6671,7 @@
         <v>18.54</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.35</v>
+        <v>0.300000000000002</v>
       </c>
       <c r="AA13" t="n">
         <v>2.89</v>
@@ -6680,7 +6680,7 @@
         <v>7.11</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.27</v>
+        <v>0.3900000000000081</v>
       </c>
       <c r="AD13" t="n">
         <v>8.470000000000001</v>
@@ -6689,7 +6689,7 @@
         <v>13.53</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.33</v>
+        <v>0.160000000000003</v>
       </c>
       <c r="AG13" t="n">
         <v>2.75</v>
@@ -6698,7 +6698,7 @@
         <v>10.74</v>
       </c>
       <c r="AI13" t="n">
-        <v>262.2</v>
+        <v>58.49999999999955</v>
       </c>
       <c r="AJ13" t="n">
         <v>499.76</v>
@@ -6707,7 +6707,7 @@
         <v>15.81</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.39</v>
+        <v>0.1100000000000099</v>
       </c>
       <c r="AM13" t="n">
         <v>2.65</v>
@@ -6716,7 +6716,7 @@
         <v>12.21</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.129999999999999</v>
+        <v>0.6399999999999659</v>
       </c>
       <c r="AP13" t="n">
         <v>18.18</v>
@@ -6725,7 +6725,7 @@
         <v>7.99</v>
       </c>
       <c r="AR13" t="n">
-        <v>3.1</v>
+        <v>2.380000000000012</v>
       </c>
       <c r="AS13" t="n">
         <v>5.98</v>
@@ -6734,7 +6734,7 @@
         <v>23.1</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.05</v>
+        <v>0.2299999999999993</v>
       </c>
       <c r="AV13" t="n">
         <v>1.53</v>
@@ -6743,7 +6743,7 @@
         <v>-4.95</v>
       </c>
       <c r="AX13" t="n">
-        <v>5.220000000000001</v>
+        <v>0.2600000000000042</v>
       </c>
       <c r="AY13" t="n">
         <v>12.9</v>
@@ -6752,7 +6752,7 @@
         <v>9.49</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.64</v>
+        <v>1.639999999999992</v>
       </c>
       <c r="BB13" t="n">
         <v>2.71</v>
@@ -6761,7 +6761,7 @@
         <v>4.55</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.23</v>
+        <v>0.169999999999999</v>
       </c>
       <c r="BE13" t="n">
         <v>0.25</v>
@@ -6779,7 +6779,7 @@
         <v>21.65</v>
       </c>
       <c r="BJ13" t="n">
-        <v>4.430000000000001</v>
+        <v>0.5700000000000007</v>
       </c>
       <c r="BK13" t="n">
         <v>10.03</v>
@@ -6788,7 +6788,7 @@
         <v>159.69</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.78</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="BN13" t="n">
         <v>1.99</v>
@@ -6797,7 +6797,7 @@
         <v>35.06</v>
       </c>
       <c r="BP13" t="n">
-        <v>7.969999999999999</v>
+        <v>1.590000000000073</v>
       </c>
       <c r="BQ13" t="n">
         <v>20.57</v>
@@ -6806,7 +6806,7 @@
         <v>52.79</v>
       </c>
       <c r="BS13" t="n">
-        <v>2.92</v>
+        <v>0.6099999999999999</v>
       </c>
       <c r="BT13" t="n">
         <v>4.05</v>
@@ -6815,7 +6815,7 @@
         <v>10.18</v>
       </c>
       <c r="BV13" t="n">
-        <v>28.03</v>
+        <v>4.739999999999966</v>
       </c>
       <c r="BW13" t="n">
         <v>52.98</v>
@@ -6824,7 +6824,7 @@
         <v>13.2</v>
       </c>
       <c r="BY13" t="n">
-        <v>24.73</v>
+        <v>16.65000000000011</v>
       </c>
       <c r="BZ13" t="n">
         <v>40.12</v>
@@ -6833,7 +6833,7 @@
         <v>12.15</v>
       </c>
       <c r="CB13" t="n">
-        <v>2.36</v>
+        <v>0.3800000000000068</v>
       </c>
       <c r="CC13" t="n">
         <v>4.82</v>
@@ -6842,7 +6842,7 @@
         <v>10.11</v>
       </c>
       <c r="CE13" t="n">
-        <v>3.9</v>
+        <v>0.2799999999999958</v>
       </c>
       <c r="CF13" t="n">
         <v>8.4</v>
@@ -6851,7 +6851,7 @@
         <v>-1.38</v>
       </c>
       <c r="CH13" t="n">
-        <v>2.13</v>
+        <v>0.1699999999999973</v>
       </c>
       <c r="CI13" t="n">
         <v>1.08</v>
@@ -6860,7 +6860,7 @@
         <v>-51.06</v>
       </c>
       <c r="CK13" t="n">
-        <v>7.099999999999998</v>
+        <v>3.939999999999994</v>
       </c>
       <c r="CL13" t="n">
         <v>13.05</v>
@@ -6869,7 +6869,7 @@
         <v>13.73</v>
       </c>
       <c r="CN13" t="n">
-        <v>1.08</v>
+        <v>0.4099999999999981</v>
       </c>
       <c r="CO13" t="n">
         <v>2.21</v>
@@ -6878,7 +6878,7 @@
         <v>15.03</v>
       </c>
       <c r="CQ13" t="n">
-        <v>3</v>
+        <v>0.3800000000000079</v>
       </c>
       <c r="CR13" t="n">
         <v>9.359999999999999</v>
@@ -6887,7 +6887,7 @@
         <v>-1.88</v>
       </c>
       <c r="CT13" t="n">
-        <v>6.709999999999999</v>
+        <v>0.3900000000000183</v>
       </c>
       <c r="CU13" t="n">
         <v>12.99</v>
@@ -6896,7 +6896,7 @@
         <v>22.21</v>
       </c>
       <c r="CW13" t="n">
-        <v>12.53</v>
+        <v>0.7399999999998981</v>
       </c>
       <c r="CX13" t="n">
         <v>21.36</v>
@@ -6905,7 +6905,7 @@
         <v>9.15</v>
       </c>
       <c r="CZ13" t="n">
-        <v>2.03</v>
+        <v>0.1799999999999988</v>
       </c>
       <c r="DA13" t="n">
         <v>2.96</v>
@@ -6914,7 +6914,7 @@
         <v>24.34</v>
       </c>
       <c r="DC13" t="n">
-        <v>11.14</v>
+        <v>2.469999999999998</v>
       </c>
       <c r="DD13" t="n">
         <v>23.41</v>
@@ -6923,7 +6923,7 @@
         <v>16.21</v>
       </c>
       <c r="DF13" t="n">
-        <v>8.93</v>
+        <v>5.849999999999994</v>
       </c>
       <c r="DG13" t="n">
         <v>17.82</v>
@@ -6932,7 +6932,7 @@
         <v>13.42</v>
       </c>
       <c r="DI13" t="n">
-        <v>16.21</v>
+        <v>3.460000000000149</v>
       </c>
       <c r="DJ13" t="n">
         <v>33.63</v>
@@ -6941,7 +6941,7 @@
         <v>7.92</v>
       </c>
       <c r="DL13" t="n">
-        <v>6.889999999999999</v>
+        <v>0.4700000000000011</v>
       </c>
       <c r="DM13" t="n">
         <v>11.45</v>
@@ -6950,7 +6950,7 @@
         <v>4.24</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.7600000000000001</v>
+        <v>0.03999999999999981</v>
       </c>
       <c r="DP13" t="n">
         <v>1.17</v>
@@ -7095,7 +7095,7 @@
         <v>15.9</v>
       </c>
       <c r="E14" t="n">
-        <v>14.05</v>
+        <v>0.9100000000000215</v>
       </c>
       <c r="F14" t="n">
         <v>47.33</v>
@@ -7131,7 +7131,7 @@
         <v>-72.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.559999999999999</v>
+        <v>0.9400000000000472</v>
       </c>
       <c r="R14" t="n">
         <v>70.91</v>
@@ -7149,7 +7149,7 @@
         <v>14.5</v>
       </c>
       <c r="W14" t="n">
-        <v>24.58</v>
+        <v>4.809999999999977</v>
       </c>
       <c r="X14" t="n">
         <v>75.34999999999999</v>
@@ -7167,7 +7167,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.26</v>
+        <v>0.9599999999999977</v>
       </c>
       <c r="AD14" t="n">
         <v>13.27</v>
@@ -7185,7 +7185,7 @@
         <v>11.3</v>
       </c>
       <c r="AI14" t="n">
-        <v>260.89</v>
+        <v>8.090000000000622</v>
       </c>
       <c r="AJ14" t="n">
         <v>814.29</v>
@@ -7194,7 +7194,7 @@
         <v>17.4</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.27</v>
+        <v>0.07999999999999813</v>
       </c>
       <c r="AM14" t="n">
         <v>4.62</v>
@@ -7203,7 +7203,7 @@
         <v>23.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>2.100000000000001</v>
+        <v>1.460000000000035</v>
       </c>
       <c r="AP14" t="n">
         <v>29.88</v>
@@ -7221,7 +7221,7 @@
         <v>18.8</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.3100000000000006</v>
       </c>
       <c r="AV14" t="n">
         <v>2.57</v>
@@ -7230,7 +7230,7 @@
         <v>-3.2</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.470000000000001</v>
+        <v>1.209999999999997</v>
       </c>
       <c r="AY14" t="n">
         <v>19.72</v>
@@ -7266,7 +7266,7 @@
         <v>13.4</v>
       </c>
       <c r="BJ14" t="n">
-        <v>2.149999999999999</v>
+        <v>0.4399999999999962</v>
       </c>
       <c r="BK14" t="n">
         <v>18.16</v>
@@ -7275,7 +7275,7 @@
         <v>49.5</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.1700000000000002</v>
+        <v>0.1400000000000002</v>
       </c>
       <c r="BN14" t="n">
         <v>2.68</v>
@@ -7293,7 +7293,7 @@
         <v>49</v>
       </c>
       <c r="BS14" t="n">
-        <v>1.59</v>
+        <v>0.3700000000000003</v>
       </c>
       <c r="BT14" t="n">
         <v>7.22</v>
@@ -7302,7 +7302,7 @@
         <v>9.5</v>
       </c>
       <c r="BV14" t="n">
-        <v>26.28</v>
+        <v>1.480000000000036</v>
       </c>
       <c r="BW14" t="n">
         <v>88.08</v>
@@ -7311,7 +7311,7 @@
         <v>17.7</v>
       </c>
       <c r="BY14" t="n">
-        <v>24.54000000000001</v>
+        <v>1.829999999999981</v>
       </c>
       <c r="BZ14" t="n">
         <v>65.09</v>
@@ -7320,7 +7320,7 @@
         <v>7.6</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.1399999999999864</v>
       </c>
       <c r="CC14" t="n">
         <v>7.17</v>
@@ -7338,7 +7338,7 @@
         <v>5.2</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.5900000000000003</v>
+        <v>0.1400000000000021</v>
       </c>
       <c r="CI14" t="n">
         <v>1.59</v>
@@ -7347,7 +7347,7 @@
         <v>-25.3</v>
       </c>
       <c r="CK14" t="n">
-        <v>6.41</v>
+        <v>0.1000000000000032</v>
       </c>
       <c r="CL14" t="n">
         <v>21.33</v>
@@ -7356,7 +7356,7 @@
         <v>14.8</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.9500000000000002</v>
+        <v>0.01000000000000123</v>
       </c>
       <c r="CO14" t="n">
         <v>3.8</v>
@@ -7365,7 +7365,7 @@
         <v>26.9</v>
       </c>
       <c r="CQ14" t="n">
-        <v>1.880000000000003</v>
+        <v>0.1899999999999991</v>
       </c>
       <c r="CR14" t="n">
         <v>14.84</v>
@@ -7374,7 +7374,7 @@
         <v>18.4</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.5299999999999994</v>
+        <v>0.1399999999999811</v>
       </c>
       <c r="CU14" t="n">
         <v>21.4</v>
@@ -7392,7 +7392,7 @@
         <v>9</v>
       </c>
       <c r="CZ14" t="n">
-        <v>2</v>
+        <v>0.9800000000000022</v>
       </c>
       <c r="DA14" t="n">
         <v>5.19</v>
@@ -7401,7 +7401,7 @@
         <v>17.9</v>
       </c>
       <c r="DC14" t="n">
-        <v>10.91</v>
+        <v>0.1900000000000022</v>
       </c>
       <c r="DD14" t="n">
         <v>38.7</v>
@@ -7410,7 +7410,7 @@
         <v>23.7</v>
       </c>
       <c r="DF14" t="n">
-        <v>8.789999999999999</v>
+        <v>0.6300000000000008</v>
       </c>
       <c r="DG14" t="n">
         <v>28.11</v>
@@ -7428,7 +7428,7 @@
         <v>11.1</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.8300000000000036</v>
+        <v>0.3600000000000025</v>
       </c>
       <c r="DM14" t="n">
         <v>19.75</v>
@@ -7437,7 +7437,7 @@
         <v>10.5</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.6400000000000001</v>
+        <v>0.6000000000000003</v>
       </c>
       <c r="DP14" t="n">
         <v>1.98</v>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5399999999999956</v>
+        <v>0.03999999999998838</v>
       </c>
       <c r="C15" t="n">
         <v>29.51</v>
@@ -7582,7 +7582,7 @@
         <v>18.8</v>
       </c>
       <c r="E15" t="n">
-        <v>13.44</v>
+        <v>12.52999999999998</v>
       </c>
       <c r="F15" t="n">
         <v>67.42</v>
@@ -7591,7 +7591,7 @@
         <v>35.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.93</v>
+        <v>2.29</v>
       </c>
       <c r="I15" t="n">
         <v>13.19</v>
@@ -7600,7 +7600,7 @@
         <v>17.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4600000000000017</v>
+        <v>0.04000000000000409</v>
       </c>
       <c r="L15" t="n">
         <v>10.78</v>
@@ -7609,7 +7609,7 @@
         <v>8.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.03</v>
+        <v>0.009999999999999979</v>
       </c>
       <c r="O15" t="n">
         <v>0.06</v>
@@ -7618,7 +7618,7 @@
         <v>-70.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.190000000000001</v>
+        <v>0.6300000000000019</v>
       </c>
       <c r="R15" t="n">
         <v>97.43000000000001</v>
@@ -7654,7 +7654,7 @@
         <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.3</v>
+        <v>0.3400000000000023</v>
       </c>
       <c r="AD15" t="n">
         <v>18.79</v>
@@ -7663,7 +7663,7 @@
         <v>17.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.2</v>
+        <v>0.28</v>
       </c>
       <c r="AG15" t="n">
         <v>5.9</v>
@@ -7681,7 +7681,7 @@
         <v>17.2</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.55</v>
+        <v>0.6600000000000019</v>
       </c>
       <c r="AM15" t="n">
         <v>6.09</v>
@@ -7690,7 +7690,7 @@
         <v>12.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>11.06</v>
+        <v>2.659999999999995</v>
       </c>
       <c r="AP15" t="n">
         <v>42.47</v>
@@ -7699,7 +7699,7 @@
         <v>14.2</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.24</v>
+        <v>1.84</v>
       </c>
       <c r="AS15" t="n">
         <v>13.32</v>
@@ -7708,7 +7708,7 @@
         <v>16.7</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.3600000000000001</v>
+        <v>0.04999999999999949</v>
       </c>
       <c r="AV15" t="n">
         <v>3.4</v>
@@ -7744,7 +7744,7 @@
         <v>-8.1</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.969999999999999</v>
+        <v>0.2299999999999989</v>
       </c>
       <c r="BH15" t="n">
         <v>11.55</v>
@@ -7753,7 +7753,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="BJ15" t="n">
-        <v>2.940000000000001</v>
+        <v>0.7900000000000018</v>
       </c>
       <c r="BK15" t="n">
         <v>20.82</v>
@@ -7762,7 +7762,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.6599999999999997</v>
+        <v>0.1499999999999991</v>
       </c>
       <c r="BN15" t="n">
         <v>3.58</v>
@@ -7771,7 +7771,7 @@
         <v>11.8</v>
       </c>
       <c r="BP15" t="n">
-        <v>6.990000000000002</v>
+        <v>2.990000000000002</v>
       </c>
       <c r="BQ15" t="n">
         <v>42.92</v>
@@ -7798,7 +7798,7 @@
         <v>17</v>
       </c>
       <c r="BY15" t="n">
-        <v>12.31999999999999</v>
+        <v>8.66000000000003</v>
       </c>
       <c r="BZ15" t="n">
         <v>89.7</v>
@@ -7807,7 +7807,7 @@
         <v>5.5</v>
       </c>
       <c r="CB15" t="n">
-        <v>3.17</v>
+        <v>0.4700000000000002</v>
       </c>
       <c r="CC15" t="n">
         <v>10.61</v>
@@ -7816,7 +7816,7 @@
         <v>6.1</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.7999999999999954</v>
+        <v>0.3999999999999878</v>
       </c>
       <c r="CF15" t="n">
         <v>18.61</v>
@@ -7834,7 +7834,7 @@
         <v>-13.9</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.75</v>
+        <v>0.5499999999999936</v>
       </c>
       <c r="CL15" t="n">
         <v>29.3</v>
@@ -7852,7 +7852,7 @@
         <v>32.3</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.4699999999999953</v>
+        <v>0.2799999999999963</v>
       </c>
       <c r="CR15" t="n">
         <v>20.68</v>
@@ -7861,7 +7861,7 @@
         <v>18.8</v>
       </c>
       <c r="CT15" t="n">
-        <v>1.070000000000004</v>
+        <v>0.01000000000000534</v>
       </c>
       <c r="CU15" t="n">
         <v>28.41</v>
@@ -7870,7 +7870,7 @@
         <v>15.6</v>
       </c>
       <c r="CW15" t="n">
-        <v>13.04</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="CX15" t="n">
         <v>50.41</v>
@@ -7897,7 +7897,7 @@
         <v>24.4</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.9100000000000037</v>
+        <v>0.2800000000000029</v>
       </c>
       <c r="DG15" t="n">
         <v>37.97</v>
@@ -7906,7 +7906,7 @@
         <v>13.6</v>
       </c>
       <c r="DI15" t="n">
-        <v>1.379999999999992</v>
+        <v>0.309999999999985</v>
       </c>
       <c r="DJ15" t="n">
         <v>71.06999999999999</v>
@@ -7915,7 +7915,7 @@
         <v>9.9</v>
       </c>
       <c r="DL15" t="n">
-        <v>2.369999999999997</v>
+        <v>0.3499999999999868</v>
       </c>
       <c r="DM15" t="n">
         <v>27.8</v>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.020000000000007</v>
+        <v>0.1100000000000425</v>
       </c>
       <c r="C16" t="n">
         <v>38.77</v>
@@ -8087,7 +8087,7 @@
         <v>16.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.270000000000001</v>
+        <v>2.26999999999999</v>
       </c>
       <c r="L16" t="n">
         <v>14.32</v>
@@ -8096,7 +8096,7 @@
         <v>7.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01999999999999996</v>
+        <v>0.009999999999999979</v>
       </c>
       <c r="O16" t="n">
         <v>0.07000000000000001</v>
@@ -8105,7 +8105,7 @@
         <v>-67.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.739999999999988</v>
+        <v>0.4799999999999842</v>
       </c>
       <c r="R16" t="n">
         <v>127.63</v>
@@ -8114,7 +8114,7 @@
         <v>20.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.06</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="U16" t="n">
         <v>6.82</v>
@@ -8123,7 +8123,7 @@
         <v>25.3</v>
       </c>
       <c r="W16" t="n">
-        <v>25.95</v>
+        <v>17.15</v>
       </c>
       <c r="X16" t="n">
         <v>132.82</v>
@@ -8132,7 +8132,7 @@
         <v>15.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.5</v>
+        <v>1.139999999999996</v>
       </c>
       <c r="AA16" t="n">
         <v>7.66</v>
@@ -8141,7 +8141,7 @@
         <v>5.9</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.759999999999998</v>
+        <v>0.5199999999999956</v>
       </c>
       <c r="AD16" t="n">
         <v>24.55</v>
@@ -8177,7 +8177,7 @@
         <v>13.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>10.64</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="AP16" t="n">
         <v>55.6</v>
@@ -8186,7 +8186,7 @@
         <v>15.2</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.979999999999999</v>
+        <v>0.08999999999999897</v>
       </c>
       <c r="AS16" t="n">
         <v>17.38</v>
@@ -8195,7 +8195,7 @@
         <v>18.6</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.05999999999999894</v>
+        <v>0.009999999999999454</v>
       </c>
       <c r="AV16" t="n">
         <v>4.38</v>
@@ -8204,7 +8204,7 @@
         <v>-0.4</v>
       </c>
       <c r="AX16" t="n">
-        <v>6.239999999999998</v>
+        <v>3.560000000000006</v>
       </c>
       <c r="AY16" t="n">
         <v>34.31</v>
@@ -8213,7 +8213,7 @@
         <v>10.5</v>
       </c>
       <c r="BA16" t="n">
-        <v>1.84</v>
+        <v>0.5600000000000003</v>
       </c>
       <c r="BB16" t="n">
         <v>8.77</v>
@@ -8222,7 +8222,7 @@
         <v>13.3</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.05999999999999989</v>
+        <v>0.02999999999999986</v>
       </c>
       <c r="BE16" t="n">
         <v>0.77</v>
@@ -8231,7 +8231,7 @@
         <v>-1.6</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.860000000000001</v>
+        <v>0.4000000000000032</v>
       </c>
       <c r="BH16" t="n">
         <v>15.4</v>
@@ -8249,7 +8249,7 @@
         <v>95.5</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.1500000000000004</v>
+        <v>1.304512053934559e-15</v>
       </c>
       <c r="BN16" t="n">
         <v>4.51</v>
@@ -8267,7 +8267,7 @@
         <v>44.7</v>
       </c>
       <c r="BS16" t="n">
-        <v>1.629999999999999</v>
+        <v>0.1699999999999995</v>
       </c>
       <c r="BT16" t="n">
         <v>10.93</v>
@@ -8285,7 +8285,7 @@
         <v>19.6</v>
       </c>
       <c r="BY16" t="n">
-        <v>34.62</v>
+        <v>9.980000000000022</v>
       </c>
       <c r="BZ16" t="n">
         <v>121.36</v>
@@ -8294,7 +8294,7 @@
         <v>-0.4</v>
       </c>
       <c r="CB16" t="n">
-        <v>2.48</v>
+        <v>0.21</v>
       </c>
       <c r="CC16" t="n">
         <v>14.23</v>
@@ -8303,7 +8303,7 @@
         <v>8.1</v>
       </c>
       <c r="CE16" t="n">
-        <v>1.800000000000004</v>
+        <v>0.3000000000000156</v>
       </c>
       <c r="CF16" t="n">
         <v>24.86</v>
@@ -8312,7 +8312,7 @@
         <v>17.2</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.6700000000000004</v>
+        <v>0.0400000000000019</v>
       </c>
       <c r="CI16" t="n">
         <v>2.94</v>
@@ -8339,7 +8339,7 @@
         <v>18.7</v>
       </c>
       <c r="CQ16" t="n">
-        <v>4.82</v>
+        <v>2.940000000000019</v>
       </c>
       <c r="CR16" t="n">
         <v>27.04</v>
@@ -8348,7 +8348,7 @@
         <v>18.8</v>
       </c>
       <c r="CT16" t="n">
-        <v>7.659999999999997</v>
+        <v>6.029999999999978</v>
       </c>
       <c r="CU16" t="n">
         <v>37.57</v>
@@ -8366,7 +8366,7 @@
         <v>10.8</v>
       </c>
       <c r="CZ16" t="n">
-        <v>2.020000000000001</v>
+        <v>0.5000000000000049</v>
       </c>
       <c r="DA16" t="n">
         <v>9.77</v>
@@ -8393,7 +8393,7 @@
         <v>15.5</v>
       </c>
       <c r="DI16" t="n">
-        <v>2.939999999999991</v>
+        <v>0.6300000000000441</v>
       </c>
       <c r="DJ16" t="n">
         <v>90.13</v>
@@ -8402,7 +8402,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="DL16" t="n">
-        <v>7.350000000000001</v>
+        <v>2.020000000000033</v>
       </c>
       <c r="DM16" t="n">
         <v>36.68</v>
@@ -8411,7 +8411,7 @@
         <v>2.8</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.1500000000000004</v>
+        <v>0.03000000000000162</v>
       </c>
       <c r="DP16" t="n">
         <v>3.82</v>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.710000000000001</v>
+        <v>4.869999999999933</v>
       </c>
       <c r="C17" t="n">
         <v>48.42</v>
@@ -8556,7 +8556,7 @@
         <v>19.1</v>
       </c>
       <c r="E17" t="n">
-        <v>13.23</v>
+        <v>10.95000000000004</v>
       </c>
       <c r="F17" t="n">
         <v>109.47</v>
@@ -8565,7 +8565,7 @@
         <v>41.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.219999999999999</v>
+        <v>1.100000000000003</v>
       </c>
       <c r="I17" t="n">
         <v>20.31</v>
@@ -8574,7 +8574,7 @@
         <v>15.4</v>
       </c>
       <c r="K17" t="n">
-        <v>3.07</v>
+        <v>0.2600000000000007</v>
       </c>
       <c r="L17" t="n">
         <v>18.2</v>
@@ -8583,7 +8583,7 @@
         <v>9.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01000000000000001</v>
+        <v>3.122502256758253e-17</v>
       </c>
       <c r="O17" t="n">
         <v>0.11</v>
@@ -8592,7 +8592,7 @@
         <v>-63.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>22.11000000000001</v>
+        <v>17.04000000000007</v>
       </c>
       <c r="R17" t="n">
         <v>157.35</v>
@@ -8601,7 +8601,7 @@
         <v>18.6</v>
       </c>
       <c r="T17" t="n">
-        <v>5.199999999999999</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="U17" t="n">
         <v>7.9</v>
@@ -8610,7 +8610,7 @@
         <v>3.7</v>
       </c>
       <c r="W17" t="n">
-        <v>23.97999999999999</v>
+        <v>0.2299999999999898</v>
       </c>
       <c r="X17" t="n">
         <v>163.36</v>
@@ -8637,7 +8637,7 @@
         <v>15.6</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.35</v>
+        <v>0.23</v>
       </c>
       <c r="AG17" t="n">
         <v>9.75</v>
@@ -8646,7 +8646,7 @@
         <v>20.9</v>
       </c>
       <c r="AI17" t="n">
-        <v>273.0800000000002</v>
+        <v>238.9599999999998</v>
       </c>
       <c r="AJ17" t="n">
         <v>1802.71</v>
@@ -8655,7 +8655,7 @@
         <v>16.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.470000000000001</v>
+        <v>0.430000000000001</v>
       </c>
       <c r="AM17" t="n">
         <v>9.74</v>
@@ -8673,7 +8673,7 @@
         <v>18.1</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.949999999999999</v>
+        <v>2.770000000000001</v>
       </c>
       <c r="AS17" t="n">
         <v>21.05</v>
@@ -8682,7 +8682,7 @@
         <v>19.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.8600000000000003</v>
+        <v>0.6200000000000045</v>
       </c>
       <c r="AV17" t="n">
         <v>5.49</v>
@@ -8691,7 +8691,7 @@
         <v>-0.3</v>
       </c>
       <c r="AX17" t="n">
-        <v>5.82</v>
+        <v>0.25</v>
       </c>
       <c r="AY17" t="n">
         <v>40.92</v>
@@ -8709,7 +8709,7 @@
         <v>16</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.01000000000000043</v>
       </c>
       <c r="BE17" t="n">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>86.8</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.2</v>
+        <v>0.0499999999999996</v>
       </c>
       <c r="BN17" t="n">
         <v>5.47</v>
@@ -8745,7 +8745,7 @@
         <v>17.1</v>
       </c>
       <c r="BP17" t="n">
-        <v>7.850000000000001</v>
+        <v>2.250000000000007</v>
       </c>
       <c r="BQ17" t="n">
         <v>65.01000000000001</v>
@@ -8754,7 +8754,7 @@
         <v>37.8</v>
       </c>
       <c r="BS17" t="n">
-        <v>2.18</v>
+        <v>0.2100000000000022</v>
       </c>
       <c r="BT17" t="n">
         <v>15.47</v>
@@ -8763,7 +8763,7 @@
         <v>7</v>
       </c>
       <c r="BV17" t="n">
-        <v>28.56</v>
+        <v>25.39999999999992</v>
       </c>
       <c r="BW17" t="n">
         <v>191.16</v>
@@ -8772,7 +8772,7 @@
         <v>20</v>
       </c>
       <c r="BY17" t="n">
-        <v>32.45999999999998</v>
+        <v>0.1799999999999482</v>
       </c>
       <c r="BZ17" t="n">
         <v>152.11</v>
@@ -8781,7 +8781,7 @@
         <v>-2.8</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.3599999999999981</v>
+        <v>0.1499999999999981</v>
       </c>
       <c r="CC17" t="n">
         <v>16.89</v>
@@ -8790,7 +8790,7 @@
         <v>7.9</v>
       </c>
       <c r="CE17" t="n">
-        <v>3.879999999999999</v>
+        <v>0.4799999999999549</v>
       </c>
       <c r="CF17" t="n">
         <v>30.8</v>
@@ -8799,7 +8799,7 @@
         <v>10.7</v>
       </c>
       <c r="CH17" t="n">
-        <v>3.07</v>
+        <v>1.649999999999995</v>
       </c>
       <c r="CI17" t="n">
         <v>3.78</v>
@@ -8808,7 +8808,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="CK17" t="n">
-        <v>6.799999999999997</v>
+        <v>5.039999999999992</v>
       </c>
       <c r="CL17" t="n">
         <v>46.78</v>
@@ -8817,7 +8817,7 @@
         <v>17.7</v>
       </c>
       <c r="CN17" t="n">
-        <v>1.010000000000001</v>
+        <v>0.7700000000000007</v>
       </c>
       <c r="CO17" t="n">
         <v>7.7</v>
@@ -8844,7 +8844,7 @@
         <v>15.6</v>
       </c>
       <c r="CW17" t="n">
-        <v>13.86</v>
+        <v>7.900000000000038</v>
       </c>
       <c r="CX17" t="n">
         <v>81.95</v>
@@ -8853,7 +8853,7 @@
         <v>12</v>
       </c>
       <c r="CZ17" t="n">
-        <v>1.959999999999999</v>
+        <v>0.3199999999999972</v>
       </c>
       <c r="DA17" t="n">
         <v>12.22</v>
@@ -8862,7 +8862,7 @@
         <v>13.1</v>
       </c>
       <c r="DC17" t="n">
-        <v>11.37</v>
+        <v>11.29</v>
       </c>
       <c r="DD17" t="n">
         <v>84.2</v>
@@ -8871,7 +8871,7 @@
         <v>29.3</v>
       </c>
       <c r="DF17" t="n">
-        <v>8.840000000000003</v>
+        <v>8.28000000000003</v>
       </c>
       <c r="DG17" t="n">
         <v>61.93</v>
@@ -8880,7 +8880,7 @@
         <v>16.9</v>
       </c>
       <c r="DI17" t="n">
-        <v>19.06</v>
+        <v>12.36999999999997</v>
       </c>
       <c r="DJ17" t="n">
         <v>111.92</v>
@@ -8889,7 +8889,7 @@
         <v>6.7</v>
       </c>
       <c r="DL17" t="n">
-        <v>6.890000000000001</v>
+        <v>1.909999999999997</v>
       </c>
       <c r="DM17" t="n">
         <v>43.94</v>
@@ -8898,7 +8898,7 @@
         <v>2.1</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.71</v>
+        <v>0.349999999999996</v>
       </c>
       <c r="DP17" t="n">
         <v>4.79</v>
@@ -9052,7 +9052,7 @@
         <v>46.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.120000000000001</v>
+        <v>0.430000000000001</v>
       </c>
       <c r="I18" t="n">
         <v>24.23</v>
@@ -9097,7 +9097,7 @@
         <v>29.1</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3600000000000101</v>
+        <v>0.1300000000000203</v>
       </c>
       <c r="X18" t="n">
         <v>192.71</v>
@@ -9106,7 +9106,7 @@
         <v>16.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.57</v>
+        <v>1.010000000000004</v>
       </c>
       <c r="AA18" t="n">
         <v>11.97</v>
@@ -9115,7 +9115,7 @@
         <v>15.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.5199999999999996</v>
+        <v>0.06999999999999679</v>
       </c>
       <c r="AD18" t="n">
         <v>35.99</v>
@@ -9151,7 +9151,7 @@
         <v>13.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>10.23999999999999</v>
+        <v>9.039999999999994</v>
       </c>
       <c r="AP18" t="n">
         <v>83.01000000000001</v>
@@ -9178,7 +9178,7 @@
         <v>3.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.9799999999999969</v>
+        <v>0.4799999999999969</v>
       </c>
       <c r="AY18" t="n">
         <v>48.57</v>
@@ -9187,7 +9187,7 @@
         <v>12.7</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.819999999999999</v>
+        <v>1.299999999999995</v>
       </c>
       <c r="BB18" t="n">
         <v>13.22</v>
@@ -9205,7 +9205,7 @@
         <v>1.8</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.209999999999996</v>
+        <v>0.02999999999999053</v>
       </c>
       <c r="BH18" t="n">
         <v>22.74</v>
@@ -9214,7 +9214,7 @@
         <v>24.6</v>
       </c>
       <c r="BJ18" t="n">
-        <v>3.519999999999999</v>
+        <v>2.999999999999995</v>
       </c>
       <c r="BK18" t="n">
         <v>37.25</v>
@@ -9223,7 +9223,7 @@
         <v>78.7</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.5700000000000003</v>
+        <v>0.2200000000000015</v>
       </c>
       <c r="BN18" t="n">
         <v>6.43</v>
@@ -9232,7 +9232,7 @@
         <v>13.3</v>
       </c>
       <c r="BP18" t="n">
-        <v>3.649999999999999</v>
+        <v>1.399999999999992</v>
       </c>
       <c r="BQ18" t="n">
         <v>76.95</v>
@@ -9241,7 +9241,7 @@
         <v>39.8</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.490000000000002</v>
+        <v>0.1100000000000003</v>
       </c>
       <c r="BT18" t="n">
         <v>16.05</v>
@@ -9259,7 +9259,7 @@
         <v>18.4</v>
       </c>
       <c r="BY18" t="n">
-        <v>28.14000000000001</v>
+        <v>17.80000000000009</v>
       </c>
       <c r="BZ18" t="n">
         <v>183.22</v>
@@ -9268,7 +9268,7 @@
         <v>-3</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.2600000000000029</v>
+        <v>0.1100000000000048</v>
       </c>
       <c r="CC18" t="n">
         <v>19.67</v>
@@ -9277,7 +9277,7 @@
         <v>6.4</v>
       </c>
       <c r="CE18" t="n">
-        <v>1.370000000000005</v>
+        <v>0.2900000000000189</v>
       </c>
       <c r="CF18" t="n">
         <v>36.03</v>
@@ -9304,7 +9304,7 @@
         <v>18</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.96</v>
+        <v>0.009999999999999121</v>
       </c>
       <c r="CO18" t="n">
         <v>8.76</v>
@@ -9313,7 +9313,7 @@
         <v>20.3</v>
       </c>
       <c r="CQ18" t="n">
-        <v>3.130000000000006</v>
+        <v>2.730000000000014</v>
       </c>
       <c r="CR18" t="n">
         <v>39.39</v>
@@ -9322,7 +9322,7 @@
         <v>21.1</v>
       </c>
       <c r="CT18" t="n">
-        <v>7.729999999999997</v>
+        <v>7.169999999999967</v>
       </c>
       <c r="CU18" t="n">
         <v>56.36</v>
@@ -9340,7 +9340,7 @@
         <v>11.4</v>
       </c>
       <c r="CZ18" t="n">
-        <v>1.940000000000001</v>
+        <v>1.300000000000007</v>
       </c>
       <c r="DA18" t="n">
         <v>14.28</v>
@@ -9367,7 +9367,7 @@
         <v>19.2</v>
       </c>
       <c r="DI18" t="n">
-        <v>18.86000000000001</v>
+        <v>2.739999999999998</v>
       </c>
       <c r="DJ18" t="n">
         <v>132.59</v>
@@ -9530,7 +9530,7 @@
         <v>22.5</v>
       </c>
       <c r="E19" t="n">
-        <v>3.109999999999978</v>
+        <v>1.409999999999968</v>
       </c>
       <c r="F19" t="n">
         <v>152.96</v>
@@ -9548,7 +9548,7 @@
         <v>17.8</v>
       </c>
       <c r="K19" t="n">
-        <v>3.18</v>
+        <v>2.660000000000004</v>
       </c>
       <c r="L19" t="n">
         <v>24.8</v>
@@ -9557,7 +9557,7 @@
         <v>8.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03999999999999998</v>
+        <v>0.009999999999999948</v>
       </c>
       <c r="O19" t="n">
         <v>0.17</v>
@@ -9566,7 +9566,7 @@
         <v>-48.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.000000000000028</v>
+        <v>1.760000000000104</v>
       </c>
       <c r="R19" t="n">
         <v>211.66</v>
@@ -9584,7 +9584,7 @@
         <v>30.6</v>
       </c>
       <c r="W19" t="n">
-        <v>2.450000000000021</v>
+        <v>1.239999999999971</v>
       </c>
       <c r="X19" t="n">
         <v>221.46</v>
@@ -9593,7 +9593,7 @@
         <v>16.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.49</v>
+        <v>0.05999999999999894</v>
       </c>
       <c r="AA19" t="n">
         <v>13.45</v>
@@ -9602,7 +9602,7 @@
         <v>12.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.25</v>
+        <v>3.520000000000009</v>
       </c>
       <c r="AD19" t="n">
         <v>41.76</v>
@@ -9620,7 +9620,7 @@
         <v>23.9</v>
       </c>
       <c r="AI19" t="n">
-        <v>22.33000000000021</v>
+        <v>0.300000000000523</v>
       </c>
       <c r="AJ19" t="n">
         <v>2466.73</v>
@@ -9647,7 +9647,7 @@
         <v>19.2</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.890000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="AS19" t="n">
         <v>28.47</v>
@@ -9656,7 +9656,7 @@
         <v>21.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>1.19</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="AV19" t="n">
         <v>7.37</v>
@@ -9683,7 +9683,7 @@
         <v>17.8</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.1699999999999997</v>
+        <v>0.1299999999999985</v>
       </c>
       <c r="BE19" t="n">
         <v>1.27</v>
@@ -9710,7 +9710,7 @@
         <v>49.8</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.3199999999999994</v>
+        <v>0.04999999999999832</v>
       </c>
       <c r="BN19" t="n">
         <v>7.45</v>
@@ -9719,7 +9719,7 @@
         <v>19.2</v>
       </c>
       <c r="BP19" t="n">
-        <v>9.319999999999993</v>
+        <v>0.6200000000000041</v>
       </c>
       <c r="BQ19" t="n">
         <v>90.39</v>
@@ -9728,7 +9728,7 @@
         <v>35.9</v>
       </c>
       <c r="BS19" t="n">
-        <v>2.419999999999998</v>
+        <v>0.45999999999999</v>
       </c>
       <c r="BT19" t="n">
         <v>18.72</v>
@@ -9737,7 +9737,7 @@
         <v>-3</v>
       </c>
       <c r="BV19" t="n">
-        <v>5.439999999999987</v>
+        <v>2.109999999999996</v>
       </c>
       <c r="BW19" t="n">
         <v>259.19</v>
@@ -9746,7 +9746,7 @@
         <v>17.9</v>
       </c>
       <c r="BY19" t="n">
-        <v>26.03999999999999</v>
+        <v>8.059999999999949</v>
       </c>
       <c r="BZ19" t="n">
         <v>208.8</v>
@@ -9755,7 +9755,7 @@
         <v>-3.8</v>
       </c>
       <c r="CB19" t="n">
-        <v>2.739999999999998</v>
+        <v>1.699999999999986</v>
       </c>
       <c r="CC19" t="n">
         <v>23.3</v>
@@ -9764,7 +9764,7 @@
         <v>7.9</v>
       </c>
       <c r="CE19" t="n">
-        <v>4.989999999999995</v>
+        <v>0.589999999999961</v>
       </c>
       <c r="CF19" t="n">
         <v>42.65</v>
@@ -9782,7 +9782,7 @@
         <v>17.7</v>
       </c>
       <c r="CK19" t="n">
-        <v>7.190000000000005</v>
+        <v>3.669999999999995</v>
       </c>
       <c r="CL19" t="n">
         <v>63.77</v>
@@ -9791,7 +9791,7 @@
         <v>17.6</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.28</v>
+        <v>0.2600000000000018</v>
       </c>
       <c r="CO19" t="n">
         <v>10</v>
@@ -9800,7 +9800,7 @@
         <v>21.3</v>
       </c>
       <c r="CQ19" t="n">
-        <v>5.619999999999997</v>
+        <v>2.489999999999991</v>
       </c>
       <c r="CR19" t="n">
         <v>44.6</v>
@@ -9818,7 +9818,7 @@
         <v>16.4</v>
       </c>
       <c r="CW19" t="n">
-        <v>2.219999999999999</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="CX19" t="n">
         <v>112.84</v>
@@ -9845,7 +9845,7 @@
         <v>26.2</v>
       </c>
       <c r="DF19" t="n">
-        <v>1.490000000000007</v>
+        <v>0.3100000000000287</v>
       </c>
       <c r="DG19" t="n">
         <v>85.79000000000001</v>
@@ -9863,7 +9863,7 @@
         <v>7.9</v>
       </c>
       <c r="DL19" t="n">
-        <v>0.4100000000000037</v>
+        <v>0.2500000000000069</v>
       </c>
       <c r="DM19" t="n">
         <v>61.35</v>
@@ -9872,7 +9872,7 @@
         <v>7.9</v>
       </c>
       <c r="DO19" t="n">
-        <v>0.8600000000000003</v>
+        <v>0.05999999999999958</v>
       </c>
       <c r="DP19" t="n">
         <v>6.58</v>
@@ -10008,7 +10008,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.449999999999989</v>
+        <v>0.9699999999999414</v>
       </c>
       <c r="C20" t="n">
         <v>76.02</v>
@@ -10017,7 +10017,7 @@
         <v>22.4</v>
       </c>
       <c r="E20" t="n">
-        <v>10.58000000000001</v>
+        <v>3.240000000000127</v>
       </c>
       <c r="F20" t="n">
         <v>172.88</v>
@@ -10026,7 +10026,7 @@
         <v>40.1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3599999999999999</v>
+        <v>0.0300000000000029</v>
       </c>
       <c r="I20" t="n">
         <v>31.87</v>
@@ -10035,7 +10035,7 @@
         <v>17.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.890000000000001</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="L20" t="n">
         <v>28.29</v>
@@ -10044,7 +10044,7 @@
         <v>8.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.03999999999999998</v>
+        <v>6.245004513516506e-17</v>
       </c>
       <c r="O20" t="n">
         <v>0.21</v>
@@ -10062,7 +10062,7 @@
         <v>19.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.16</v>
+        <v>0.5600000000000038</v>
       </c>
       <c r="U20" t="n">
         <v>12.49</v>
@@ -10071,7 +10071,7 @@
         <v>28.4</v>
       </c>
       <c r="W20" t="n">
-        <v>6.169999999999959</v>
+        <v>0.2599999999999361</v>
       </c>
       <c r="X20" t="n">
         <v>253.21</v>
@@ -10080,7 +10080,7 @@
         <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.4700000000000011</v>
+        <v>0.3500000000000031</v>
       </c>
       <c r="AA20" t="n">
         <v>15.11</v>
@@ -10098,7 +10098,7 @@
         <v>16</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.6</v>
+        <v>0.8400000000000003</v>
       </c>
       <c r="AG20" t="n">
         <v>14.94</v>
@@ -10107,7 +10107,7 @@
         <v>12.8</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.7199999999998</v>
+        <v>2.819999999998231</v>
       </c>
       <c r="AJ20" t="n">
         <v>2813.97</v>
@@ -10116,7 +10116,7 @@
         <v>15.6</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.690000000000001</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="AM20" t="n">
         <v>15.94</v>
@@ -10125,7 +10125,7 @@
         <v>14.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>2.930000000000001</v>
+        <v>0.6699999999999808</v>
       </c>
       <c r="AP20" t="n">
         <v>109.24</v>
@@ -10134,7 +10134,7 @@
         <v>19.5</v>
       </c>
       <c r="AR20" t="n">
-        <v>23.33</v>
+        <v>16.32</v>
       </c>
       <c r="AS20" t="n">
         <v>32.39</v>
@@ -10143,7 +10143,7 @@
         <v>7.4</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.47</v>
+        <v>0.1599999999999995</v>
       </c>
       <c r="AV20" t="n">
         <v>8.640000000000001</v>
@@ -10152,7 +10152,7 @@
         <v>-2.4</v>
       </c>
       <c r="AX20" t="n">
-        <v>6.530000000000001</v>
+        <v>5.609999999999985</v>
       </c>
       <c r="AY20" t="n">
         <v>64</v>
@@ -10161,7 +10161,7 @@
         <v>12.4</v>
       </c>
       <c r="BA20" t="n">
-        <v>1.959999999999999</v>
+        <v>1.039999999999991</v>
       </c>
       <c r="BB20" t="n">
         <v>17.83</v>
@@ -10170,7 +10170,7 @@
         <v>15.6</v>
       </c>
       <c r="BD20" t="n">
-        <v>1.28</v>
+        <v>0.6600000000000028</v>
       </c>
       <c r="BE20" t="n">
         <v>1.66</v>
@@ -10179,7 +10179,7 @@
         <v>1.2</v>
       </c>
       <c r="BG20" t="n">
-        <v>2.77</v>
+        <v>2.729999999999996</v>
       </c>
       <c r="BH20" t="n">
         <v>30.07</v>
@@ -10188,7 +10188,7 @@
         <v>22.9</v>
       </c>
       <c r="BJ20" t="n">
-        <v>7.460000000000001</v>
+        <v>0.6500000000000128</v>
       </c>
       <c r="BK20" t="n">
         <v>48.6</v>
@@ -10206,7 +10206,7 @@
         <v>31.5</v>
       </c>
       <c r="BP20" t="n">
-        <v>18.10000000000001</v>
+        <v>1.090000000000025</v>
       </c>
       <c r="BQ20" t="n">
         <v>102.01</v>
@@ -10251,7 +10251,7 @@
         <v>8.5</v>
       </c>
       <c r="CE20" t="n">
-        <v>4.740000000000002</v>
+        <v>0.2400000000000322</v>
       </c>
       <c r="CF20" t="n">
         <v>49.04</v>
@@ -10260,7 +10260,7 @@
         <v>16.9</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.1200000000000001</v>
+        <v>0.04000000000000003</v>
       </c>
       <c r="CI20" t="n">
         <v>5.41</v>
@@ -10278,7 +10278,7 @@
         <v>18.5</v>
       </c>
       <c r="CN20" t="n">
-        <v>1.09</v>
+        <v>0.25</v>
       </c>
       <c r="CO20" t="n">
         <v>11.51</v>
@@ -10305,7 +10305,7 @@
         <v>16.1</v>
       </c>
       <c r="CW20" t="n">
-        <v>14.91000000000001</v>
+        <v>8.910000000000014</v>
       </c>
       <c r="CX20" t="n">
         <v>130.44</v>
@@ -10314,7 +10314,7 @@
         <v>10.6</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.2399999999999978</v>
+        <v>0.1599999999999978</v>
       </c>
       <c r="DA20" t="n">
         <v>18.68</v>
@@ -10323,7 +10323,7 @@
         <v>12.1</v>
       </c>
       <c r="DC20" t="n">
-        <v>11.43000000000001</v>
+        <v>6.66999999999997</v>
       </c>
       <c r="DD20" t="n">
         <v>127.95</v>
@@ -10332,7 +10332,7 @@
         <v>23.2</v>
       </c>
       <c r="DF20" t="n">
-        <v>9.530000000000001</v>
+        <v>6.519999999999918</v>
       </c>
       <c r="DG20" t="n">
         <v>98.56</v>
@@ -10341,7 +10341,7 @@
         <v>20</v>
       </c>
       <c r="DI20" t="n">
-        <v>14.03999999999999</v>
+        <v>6.720000000000027</v>
       </c>
       <c r="DJ20" t="n">
         <v>177.38</v>
@@ -10359,7 +10359,7 @@
         <v>7.9</v>
       </c>
       <c r="DO20" t="n">
-        <v>0.8599999999999994</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="DP20" t="n">
         <v>7.5</v>
@@ -10495,7 +10495,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.730000000000004</v>
+        <v>2.65000000000012</v>
       </c>
       <c r="C21" t="n">
         <v>88.38</v>
@@ -10513,7 +10513,7 @@
         <v>44.91</v>
       </c>
       <c r="H21" t="n">
-        <v>3.529999999999998</v>
+        <v>2.749999999999992</v>
       </c>
       <c r="I21" t="n">
         <v>36.87</v>
@@ -10531,7 +10531,7 @@
         <v>8.81</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="O21" t="n">
         <v>0.23</v>
@@ -10540,7 +10540,7 @@
         <v>-45.46</v>
       </c>
       <c r="Q21" t="n">
-        <v>24.25</v>
+        <v>23.69000000000008</v>
       </c>
       <c r="R21" t="n">
         <v>274.78</v>
@@ -10558,7 +10558,7 @@
         <v>29.47</v>
       </c>
       <c r="W21" t="n">
-        <v>26.44000000000003</v>
+        <v>13.29000000000027</v>
       </c>
       <c r="X21" t="n">
         <v>287.67</v>
@@ -10567,7 +10567,7 @@
         <v>15.39</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.68</v>
+        <v>0.2699999999999969</v>
       </c>
       <c r="AA21" t="n">
         <v>17.2</v>
@@ -10576,7 +10576,7 @@
         <v>11.79</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.299999999999997</v>
+        <v>0.379999999999995</v>
       </c>
       <c r="AD21" t="n">
         <v>53.18</v>
@@ -10594,7 +10594,7 @@
         <v>13.67</v>
       </c>
       <c r="AI21" t="n">
-        <v>300.8200000000002</v>
+        <v>286.8400000000025</v>
       </c>
       <c r="AJ21" t="n">
         <v>3183.66</v>
@@ -10612,7 +10612,7 @@
         <v>16.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>10.48999999999999</v>
+        <v>4.420000000000035</v>
       </c>
       <c r="AP21" t="n">
         <v>126.36</v>
@@ -10630,7 +10630,7 @@
         <v>21.58</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.42</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="AV21" t="n">
         <v>9.880000000000001</v>
@@ -10675,7 +10675,7 @@
         <v>23.02</v>
       </c>
       <c r="BJ21" t="n">
-        <v>3.6</v>
+        <v>0.02999999999997849</v>
       </c>
       <c r="BK21" t="n">
         <v>54.83</v>
@@ -10684,7 +10684,7 @@
         <v>21.26</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.8000000000000007</v>
+        <v>0.1599999999999992</v>
       </c>
       <c r="BN21" t="n">
         <v>9.15</v>
@@ -10693,7 +10693,7 @@
         <v>11.74</v>
       </c>
       <c r="BP21" t="n">
-        <v>12.21000000000001</v>
+        <v>0.3199999999999728</v>
       </c>
       <c r="BQ21" t="n">
         <v>113.89</v>
@@ -10702,7 +10702,7 @@
         <v>10.29</v>
       </c>
       <c r="BS21" t="n">
-        <v>2.720000000000002</v>
+        <v>0.9599999999999982</v>
       </c>
       <c r="BT21" t="n">
         <v>25.19</v>
@@ -10711,7 +10711,7 @@
         <v>2.49</v>
       </c>
       <c r="BV21" t="n">
-        <v>28.88</v>
+        <v>25.19999999999992</v>
       </c>
       <c r="BW21" t="n">
         <v>343.53</v>
@@ -10738,7 +10738,7 @@
         <v>7.07</v>
       </c>
       <c r="CE21" t="n">
-        <v>4.5</v>
+        <v>2.259999999999976</v>
       </c>
       <c r="CF21" t="n">
         <v>54.63</v>
@@ -10747,7 +10747,7 @@
         <v>17.02</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.6100000000000003</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="CI21" t="n">
         <v>6.47</v>
@@ -10756,7 +10756,7 @@
         <v>15.86</v>
       </c>
       <c r="CK21" t="n">
-        <v>2.429999999999989</v>
+        <v>0.07000000000000428</v>
       </c>
       <c r="CL21" t="n">
         <v>82.92</v>
@@ -10765,7 +10765,7 @@
         <v>19.84</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.3899999999999999</v>
+        <v>0.1399999999999999</v>
       </c>
       <c r="CO21" t="n">
         <v>12.86</v>
@@ -10774,7 +10774,7 @@
         <v>21.66</v>
       </c>
       <c r="CQ21" t="n">
-        <v>5.439999999999998</v>
+        <v>4.079999999999983</v>
       </c>
       <c r="CR21" t="n">
         <v>57.72</v>
@@ -10783,7 +10783,7 @@
         <v>10.7</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.9699999999999847</v>
+        <v>0.2499999999999574</v>
       </c>
       <c r="CU21" t="n">
         <v>84.45</v>
@@ -10801,7 +10801,7 @@
         <v>10.97</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.7399999999999993</v>
+        <v>0.0800000000000059</v>
       </c>
       <c r="DA21" t="n">
         <v>21.27</v>
@@ -10837,7 +10837,7 @@
         <v>9.59</v>
       </c>
       <c r="DL21" t="n">
-        <v>0.2199999999999989</v>
+        <v>0.03000000000000119</v>
       </c>
       <c r="DM21" t="n">
         <v>79.58</v>
@@ -10846,7 +10846,7 @@
         <v>10.93</v>
       </c>
       <c r="DO21" t="n">
-        <v>0.3399999999999996</v>
+        <v>0.1400000000000003</v>
       </c>
       <c r="DP21" t="n">
         <v>9.15</v>
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.709999999999996</v>
+        <v>0.9699999999999234</v>
       </c>
       <c r="C22" t="n">
         <v>96.86</v>
@@ -10991,7 +10991,7 @@
         <v>23.07</v>
       </c>
       <c r="E22" t="n">
-        <v>16.77000000000001</v>
+        <v>0.770000000000131</v>
       </c>
       <c r="F22" t="n">
         <v>217.6</v>
@@ -11009,7 +11009,7 @@
         <v>19.95</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6100000000000101</v>
+        <v>0.1400000000000152</v>
       </c>
       <c r="L22" t="n">
         <v>35.32</v>
@@ -11018,7 +11018,7 @@
         <v>9.35</v>
       </c>
       <c r="N22" t="n">
-        <v>0.07999999999999999</v>
+        <v>0.00999999999999992</v>
       </c>
       <c r="O22" t="n">
         <v>0.25</v>
@@ -11036,7 +11036,7 @@
         <v>19.48</v>
       </c>
       <c r="T22" t="n">
-        <v>1.43</v>
+        <v>0.3500000000000016</v>
       </c>
       <c r="U22" t="n">
         <v>15.57</v>
@@ -11054,7 +11054,7 @@
         <v>16.25</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.4099999999999999</v>
+        <v>0.140000000000003</v>
       </c>
       <c r="AA22" t="n">
         <v>18.91</v>
@@ -11063,7 +11063,7 @@
         <v>10.77</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.050000000000004</v>
+        <v>0.3700000000000121</v>
       </c>
       <c r="AD22" t="n">
         <v>60.16</v>
@@ -11072,7 +11072,7 @@
         <v>15.76</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.5799999999999979</v>
+        <v>0.03999999999999598</v>
       </c>
       <c r="AG22" t="n">
         <v>18.79</v>
@@ -11090,7 +11090,7 @@
         <v>15.97</v>
       </c>
       <c r="AL22" t="n">
-        <v>2.140000000000001</v>
+        <v>0.4000000000000106</v>
       </c>
       <c r="AM22" t="n">
         <v>20.8</v>
@@ -11099,7 +11099,7 @@
         <v>16.18</v>
       </c>
       <c r="AO22" t="n">
-        <v>8.160000000000002</v>
+        <v>0.6000000000000139</v>
       </c>
       <c r="AP22" t="n">
         <v>139.81</v>
@@ -11117,7 +11117,7 @@
         <v>20.49</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.9900000000000002</v>
+        <v>0.03000000000000025</v>
       </c>
       <c r="AV22" t="n">
         <v>11.13</v>
@@ -11126,7 +11126,7 @@
         <v>-6.81</v>
       </c>
       <c r="AX22" t="n">
-        <v>9.970000000000013</v>
+        <v>2.550000000000037</v>
       </c>
       <c r="AY22" t="n">
         <v>83.15000000000001</v>
@@ -11135,7 +11135,7 @@
         <v>12.81</v>
       </c>
       <c r="BA22" t="n">
-        <v>1.409999999999996</v>
+        <v>0.9299999999999842</v>
       </c>
       <c r="BB22" t="n">
         <v>22.65</v>
@@ -11153,7 +11153,7 @@
         <v>-0.51</v>
       </c>
       <c r="BG22" t="n">
-        <v>0.9700000000000029</v>
+        <v>0.130000000000003</v>
       </c>
       <c r="BH22" t="n">
         <v>36.75</v>
@@ -11162,7 +11162,7 @@
         <v>21.6</v>
       </c>
       <c r="BJ22" t="n">
-        <v>7.640000000000001</v>
+        <v>0.4400000000000008</v>
       </c>
       <c r="BK22" t="n">
         <v>61.24</v>
@@ -11171,7 +11171,7 @@
         <v>8.81</v>
       </c>
       <c r="BM22" t="n">
-        <v>1.009999999999999</v>
+        <v>0.2099999999999982</v>
       </c>
       <c r="BN22" t="n">
         <v>10.37</v>
@@ -11180,7 +11180,7 @@
         <v>15.42</v>
       </c>
       <c r="BP22" t="n">
-        <v>2.519999999999991</v>
+        <v>2.200000000000018</v>
       </c>
       <c r="BQ22" t="n">
         <v>125.67</v>
@@ -11216,7 +11216,7 @@
         <v>0.31</v>
       </c>
       <c r="CB22" t="n">
-        <v>2.859999999999999</v>
+        <v>0.859999999999999</v>
       </c>
       <c r="CC22" t="n">
         <v>36.49</v>
@@ -11234,7 +11234,7 @@
         <v>21.13</v>
       </c>
       <c r="CH22" t="n">
-        <v>1.06</v>
+        <v>0.03999999999999959</v>
       </c>
       <c r="CI22" t="n">
         <v>7.23</v>
@@ -11243,7 +11243,7 @@
         <v>16.46</v>
       </c>
       <c r="CK22" t="n">
-        <v>2.29000000000001</v>
+        <v>0.4500000000000168</v>
       </c>
       <c r="CL22" t="n">
         <v>93.55</v>
@@ -11252,7 +11252,7 @@
         <v>17.82</v>
       </c>
       <c r="CN22" t="n">
-        <v>1.54</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="CO22" t="n">
         <v>14.39</v>
@@ -11270,7 +11270,7 @@
         <v>11.21</v>
       </c>
       <c r="CT22" t="n">
-        <v>1.670000000000019</v>
+        <v>0.09000000000006336</v>
       </c>
       <c r="CU22" t="n">
         <v>94.98999999999999</v>
@@ -11279,7 +11279,7 @@
         <v>15.15</v>
       </c>
       <c r="CW22" t="n">
-        <v>4.21999999999999</v>
+        <v>3.34000000000003</v>
       </c>
       <c r="CX22" t="n">
         <v>165.73</v>
@@ -11288,7 +11288,7 @@
         <v>12.01</v>
       </c>
       <c r="CZ22" t="n">
-        <v>0.1800000000000028</v>
+        <v>0.0999999999999969</v>
       </c>
       <c r="DA22" t="n">
         <v>24.94</v>
@@ -11297,7 +11297,7 @@
         <v>14.32</v>
       </c>
       <c r="DC22" t="n">
-        <v>7.25</v>
+        <v>3.370000000000005</v>
       </c>
       <c r="DD22" t="n">
         <v>157.84</v>
@@ -11306,7 +11306,7 @@
         <v>23.63</v>
       </c>
       <c r="DF22" t="n">
-        <v>7.11999999999999</v>
+        <v>4.079999999999956</v>
       </c>
       <c r="DG22" t="n">
         <v>123.79</v>
@@ -11315,7 +11315,7 @@
         <v>21.39</v>
       </c>
       <c r="DI22" t="n">
-        <v>4.000000000000002</v>
+        <v>0.3999999999999657</v>
       </c>
       <c r="DJ22" t="n">
         <v>218.17</v>
@@ -11324,7 +11324,7 @@
         <v>13.34</v>
       </c>
       <c r="DL22" t="n">
-        <v>2.73999999999999</v>
+        <v>2.429999999999988</v>
       </c>
       <c r="DM22" t="n">
         <v>88.93000000000001</v>
@@ -11333,7 +11333,7 @@
         <v>11.9</v>
       </c>
       <c r="DO22" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.0199999999999998</v>
       </c>
       <c r="DP22" t="n">
         <v>10.04</v>
